--- a/app/web scraping/doctors_DoctorNext.xlsx
+++ b/app/web scraping/doctors_DoctorNext.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\term6\internship\Projects\web scraping\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\term6\internship\Projects\phaze1\app\web scraping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61760CEE-CF2E-494B-9508-62F6848727DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4041AF3-4CE2-4A40-8908-62BADFB2C36F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1466" uniqueCount="889">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1379" uniqueCount="876">
   <si>
     <t>name</t>
   </si>
@@ -289,12 +289,6 @@
     <t>93537</t>
   </si>
   <si>
-    <t>reza</t>
-  </si>
-  <si>
-    <t>mansouri</t>
-  </si>
-  <si>
     <t>112499</t>
   </si>
   <si>
@@ -649,9 +643,6 @@
     <t>آسوبار</t>
   </si>
   <si>
-    <t>58665**</t>
-  </si>
-  <si>
     <t>امید</t>
   </si>
   <si>
@@ -838,9 +829,6 @@
     <t>علیپور</t>
   </si>
   <si>
-    <t>99999999</t>
-  </si>
-  <si>
     <t>پویا</t>
   </si>
   <si>
@@ -1099,9 +1087,6 @@
     <t>شریفی</t>
   </si>
   <si>
-    <t>0000086374</t>
-  </si>
-  <si>
     <t>حمیدی زاده</t>
   </si>
   <si>
@@ -1279,9 +1264,6 @@
     <t>امامی</t>
   </si>
   <si>
-    <t>0000034141</t>
-  </si>
-  <si>
     <t>حمیده</t>
   </si>
   <si>
@@ -1582,9 +1564,6 @@
     <t>83816</t>
   </si>
   <si>
-    <t>احمدزاده</t>
-  </si>
-  <si>
     <t>100626</t>
   </si>
   <si>
@@ -1678,21 +1657,12 @@
     <t>53938</t>
   </si>
   <si>
-    <t>00000000000000</t>
-  </si>
-  <si>
     <t>طبائی</t>
   </si>
   <si>
     <t>40283</t>
   </si>
   <si>
-    <t>راحله سادات</t>
-  </si>
-  <si>
-    <t>توکلی طبازواره</t>
-  </si>
-  <si>
     <t>همایون</t>
   </si>
   <si>
@@ -2008,9 +1978,6 @@
     <t>محمودی</t>
   </si>
   <si>
-    <t>9111128369</t>
-  </si>
-  <si>
     <t>میری علی آباد</t>
   </si>
   <si>
@@ -2470,9 +2437,6 @@
     <t>کریمی زارچی</t>
   </si>
   <si>
-    <t>7881611#</t>
-  </si>
-  <si>
     <t>سیده ریحانه</t>
   </si>
   <si>
@@ -2623,18 +2587,12 @@
     <t>2913</t>
   </si>
   <si>
-    <t>محمد حسین</t>
-  </si>
-  <si>
     <t>ابوذر</t>
   </si>
   <si>
     <t>باقری هارونی</t>
   </si>
   <si>
-    <t>0000آ-3877</t>
-  </si>
-  <si>
     <t>رامندی</t>
   </si>
   <si>
@@ -2647,9 +2605,6 @@
     <t>مظاهری</t>
   </si>
   <si>
-    <t>0000091026</t>
-  </si>
-  <si>
     <t>نوری</t>
   </si>
   <si>
@@ -2687,6 +2642,12 @@
   </si>
   <si>
     <t>specialty_Id</t>
+  </si>
+  <si>
+    <t>منصوری</t>
+  </si>
+  <si>
+    <t>آ-3877</t>
   </si>
 </sst>
 </file>
@@ -3077,17 +3038,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G366"/>
+  <dimension ref="A1:G346"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="A187" zoomScale="131" zoomScaleNormal="131" workbookViewId="0">
+      <selection activeCell="A208" sqref="A208:XFD208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="10.88671875" style="3" customWidth="1"/>
     <col min="2" max="2" width="14.109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" style="4" customWidth="1"/>
     <col min="4" max="4" width="9.33203125" style="4" customWidth="1"/>
     <col min="5" max="5" width="42.5546875" style="3" customWidth="1"/>
     <col min="6" max="6" width="8.88671875" style="4" customWidth="1"/>
@@ -3116,7 +3077,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>888</v>
+        <v>873</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3750,13 +3711,13 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
+        <v>445</v>
+      </c>
+      <c r="B30" t="s">
+        <v>874</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="B30" t="s">
-        <v>90</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>91</v>
       </c>
       <c r="D30" s="4">
         <v>1</v>
@@ -3773,13 +3734,13 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
+        <v>90</v>
+      </c>
+      <c r="B31" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="B31" t="s">
-        <v>93</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>94</v>
       </c>
       <c r="D31" s="4">
         <v>1</v>
@@ -3796,13 +3757,13 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
+        <v>93</v>
+      </c>
+      <c r="B32" t="s">
+        <v>94</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="B32" t="s">
-        <v>96</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>97</v>
       </c>
       <c r="D32" s="4">
         <v>1</v>
@@ -3819,13 +3780,13 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
+        <v>96</v>
+      </c>
+      <c r="B33" t="s">
+        <v>97</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="B33" t="s">
-        <v>99</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>100</v>
       </c>
       <c r="D33" s="4">
         <v>1</v>
@@ -3839,13 +3800,13 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
+        <v>99</v>
+      </c>
+      <c r="B34" t="s">
+        <v>100</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="B34" t="s">
-        <v>102</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>103</v>
       </c>
       <c r="D34" s="4">
         <v>1</v>
@@ -3859,13 +3820,13 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
+        <v>102</v>
+      </c>
+      <c r="B35" t="s">
+        <v>103</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="B35" t="s">
-        <v>105</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>106</v>
       </c>
       <c r="D35" s="4">
         <v>1</v>
@@ -3882,13 +3843,13 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
+        <v>105</v>
+      </c>
+      <c r="B36" t="s">
+        <v>106</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>107</v>
-      </c>
-      <c r="B36" t="s">
-        <v>108</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>109</v>
       </c>
       <c r="D36" s="4">
         <v>1</v>
@@ -3902,13 +3863,13 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
+        <v>108</v>
+      </c>
+      <c r="B37" t="s">
+        <v>109</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>110</v>
-      </c>
-      <c r="B37" t="s">
-        <v>111</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>112</v>
       </c>
       <c r="D37" s="4">
         <v>1</v>
@@ -3925,13 +3886,13 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
+        <v>111</v>
+      </c>
+      <c r="B38" t="s">
+        <v>112</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="B38" t="s">
-        <v>114</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>115</v>
       </c>
       <c r="D38" s="4">
         <v>1</v>
@@ -3948,13 +3909,13 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
+        <v>114</v>
+      </c>
+      <c r="B39" t="s">
+        <v>115</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="B39" t="s">
-        <v>117</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>118</v>
       </c>
       <c r="D39" s="4">
         <v>1</v>
@@ -3971,13 +3932,13 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
+        <v>117</v>
+      </c>
+      <c r="B40" t="s">
+        <v>118</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="B40" t="s">
-        <v>120</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>121</v>
       </c>
       <c r="D40" s="4">
         <v>2</v>
@@ -3994,13 +3955,13 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
+        <v>120</v>
+      </c>
+      <c r="B41" t="s">
+        <v>121</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="B41" t="s">
-        <v>123</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>124</v>
       </c>
       <c r="D41" s="4">
         <v>2</v>
@@ -4020,10 +3981,10 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D42" s="4">
         <v>1</v>
@@ -4040,13 +4001,13 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
+        <v>125</v>
+      </c>
+      <c r="B43" t="s">
+        <v>126</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>127</v>
-      </c>
-      <c r="B43" t="s">
-        <v>128</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>129</v>
       </c>
       <c r="D43" s="4">
         <v>2</v>
@@ -4063,13 +4024,13 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
+        <v>128</v>
+      </c>
+      <c r="B44" t="s">
+        <v>129</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>130</v>
-      </c>
-      <c r="B44" t="s">
-        <v>131</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>132</v>
       </c>
       <c r="D44" s="4">
         <v>1</v>
@@ -4086,13 +4047,13 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
+        <v>131</v>
+      </c>
+      <c r="B45" t="s">
+        <v>132</v>
+      </c>
+      <c r="C45" s="4" t="s">
         <v>133</v>
-      </c>
-      <c r="B45" t="s">
-        <v>134</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>135</v>
       </c>
       <c r="D45" s="4">
         <v>1</v>
@@ -4112,10 +4073,10 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D46" s="4">
         <v>1</v>
@@ -4129,13 +4090,13 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
+        <v>136</v>
+      </c>
+      <c r="B47" t="s">
+        <v>137</v>
+      </c>
+      <c r="C47" s="4" t="s">
         <v>138</v>
-      </c>
-      <c r="B47" t="s">
-        <v>139</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>140</v>
       </c>
       <c r="D47" s="4">
         <v>0</v>
@@ -4152,13 +4113,13 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
+        <v>139</v>
+      </c>
+      <c r="B48" t="s">
+        <v>140</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>141</v>
-      </c>
-      <c r="B48" t="s">
-        <v>142</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>143</v>
       </c>
       <c r="D48" s="4">
         <v>1</v>
@@ -4175,13 +4136,13 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B49" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D49" s="4">
         <v>1</v>
@@ -4195,13 +4156,13 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
+        <v>144</v>
+      </c>
+      <c r="B50" t="s">
+        <v>145</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>146</v>
-      </c>
-      <c r="B50" t="s">
-        <v>147</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>148</v>
       </c>
       <c r="D50" s="4">
         <v>1</v>
@@ -4218,13 +4179,13 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
+        <v>147</v>
+      </c>
+      <c r="B51" t="s">
+        <v>148</v>
+      </c>
+      <c r="C51" s="4" t="s">
         <v>149</v>
-      </c>
-      <c r="B51" t="s">
-        <v>150</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>151</v>
       </c>
       <c r="D51" s="4">
         <v>2</v>
@@ -4241,13 +4202,13 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
+        <v>150</v>
+      </c>
+      <c r="B52" t="s">
+        <v>151</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>152</v>
-      </c>
-      <c r="B52" t="s">
-        <v>153</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>154</v>
       </c>
       <c r="D52" s="4">
         <v>2</v>
@@ -4264,13 +4225,13 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" t="s">
+        <v>153</v>
+      </c>
+      <c r="B53" t="s">
+        <v>154</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>155</v>
-      </c>
-      <c r="B53" t="s">
-        <v>156</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>157</v>
       </c>
       <c r="D53" s="4">
         <v>2</v>
@@ -4287,13 +4248,13 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" t="s">
+        <v>156</v>
+      </c>
+      <c r="B54" t="s">
+        <v>157</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>158</v>
-      </c>
-      <c r="B54" t="s">
-        <v>159</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>160</v>
       </c>
       <c r="D54" s="4">
         <v>2</v>
@@ -4310,13 +4271,13 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" t="s">
+        <v>159</v>
+      </c>
+      <c r="B55" t="s">
+        <v>160</v>
+      </c>
+      <c r="C55" s="4" t="s">
         <v>161</v>
-      </c>
-      <c r="B55" t="s">
-        <v>162</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>163</v>
       </c>
       <c r="D55" s="4">
         <v>2</v>
@@ -4330,13 +4291,13 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" t="s">
+        <v>162</v>
+      </c>
+      <c r="B56" t="s">
+        <v>163</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>164</v>
-      </c>
-      <c r="B56" t="s">
-        <v>165</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>166</v>
       </c>
       <c r="D56" s="4">
         <v>2</v>
@@ -4350,13 +4311,13 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" t="s">
+        <v>165</v>
+      </c>
+      <c r="B57" t="s">
+        <v>166</v>
+      </c>
+      <c r="C57" s="4" t="s">
         <v>167</v>
-      </c>
-      <c r="B57" t="s">
-        <v>168</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>169</v>
       </c>
       <c r="D57" s="4">
         <v>1</v>
@@ -4370,13 +4331,13 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" t="s">
-        <v>74</v>
+        <v>168</v>
       </c>
       <c r="B58" t="s">
-        <v>75</v>
+        <v>169</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>76</v>
+        <v>170</v>
       </c>
       <c r="D58" s="4">
         <v>2</v>
@@ -4390,19 +4351,22 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="B59" t="s">
-        <v>78</v>
+        <v>171</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="D59" s="4">
         <v>1</v>
       </c>
       <c r="E59" t="s">
         <v>9</v>
+      </c>
+      <c r="F59" s="4">
+        <v>4.8947368421052628</v>
       </c>
       <c r="G59" s="6">
         <v>20175</v>
@@ -4410,13 +4374,13 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B60" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D60" s="4">
         <v>2</v>
@@ -4430,22 +4394,19 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61" t="s">
-        <v>19</v>
+        <v>176</v>
       </c>
       <c r="B61" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="D61" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E61" t="s">
         <v>9</v>
-      </c>
-      <c r="F61" s="4">
-        <v>4.8947368421052628</v>
       </c>
       <c r="G61" s="6">
         <v>20175</v>
@@ -4453,19 +4414,22 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62" t="s">
-        <v>175</v>
+        <v>48</v>
       </c>
       <c r="B62" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D62" s="4">
         <v>2</v>
       </c>
       <c r="E62" t="s">
         <v>9</v>
+      </c>
+      <c r="F62" s="4">
+        <v>4.666666666666667</v>
       </c>
       <c r="G62" s="6">
         <v>20175</v>
@@ -4473,19 +4437,22 @@
     </row>
     <row r="63" spans="1:7">
       <c r="A63" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B63" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D63" s="4">
         <v>2</v>
       </c>
       <c r="E63" t="s">
         <v>9</v>
+      </c>
+      <c r="F63" s="4">
+        <v>5</v>
       </c>
       <c r="G63" s="6">
         <v>20175</v>
@@ -4493,22 +4460,19 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64" t="s">
-        <v>48</v>
+        <v>184</v>
       </c>
       <c r="B64" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D64" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E64" t="s">
         <v>9</v>
-      </c>
-      <c r="F64" s="4">
-        <v>4.666666666666667</v>
       </c>
       <c r="G64" s="6">
         <v>20175</v>
@@ -4516,22 +4480,22 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B65" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D65" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E65" t="s">
         <v>9</v>
       </c>
       <c r="F65" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G65" s="6">
         <v>20175</v>
@@ -4539,13 +4503,13 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66" t="s">
-        <v>186</v>
+        <v>51</v>
       </c>
       <c r="B66" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D66" s="4">
         <v>1</v>
@@ -4559,22 +4523,19 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B67" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D67" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E67" t="s">
         <v>9</v>
-      </c>
-      <c r="F67" s="4">
-        <v>1</v>
       </c>
       <c r="G67" s="6">
         <v>20175</v>
@@ -4582,13 +4543,13 @@
     </row>
     <row r="68" spans="1:7">
       <c r="A68" t="s">
-        <v>51</v>
+        <v>194</v>
       </c>
       <c r="B68" t="s">
-        <v>191</v>
+        <v>7</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D68" s="4">
         <v>1</v>
@@ -4602,19 +4563,22 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B69" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D69" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E69" t="s">
         <v>9</v>
+      </c>
+      <c r="F69" s="4">
+        <v>5</v>
       </c>
       <c r="G69" s="6">
         <v>20175</v>
@@ -4622,19 +4586,22 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>200</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="D70" s="4">
         <v>1</v>
       </c>
       <c r="E70" t="s">
         <v>9</v>
+      </c>
+      <c r="F70" s="4">
+        <v>4.95</v>
       </c>
       <c r="G70" s="6">
         <v>20175</v>
@@ -4642,22 +4609,19 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B71" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="D71" s="4">
         <v>1</v>
       </c>
       <c r="E71" t="s">
         <v>9</v>
-      </c>
-      <c r="F71" s="4">
-        <v>5</v>
       </c>
       <c r="G71" s="6">
         <v>20175</v>
@@ -4665,13 +4629,13 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" t="s">
-        <v>62</v>
+        <v>205</v>
       </c>
       <c r="B72" t="s">
-        <v>63</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>64</v>
+        <v>206</v>
+      </c>
+      <c r="C72" s="4">
+        <v>58665</v>
       </c>
       <c r="D72" s="4">
         <v>1</v>
@@ -4685,22 +4649,19 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="B73" t="s">
-        <v>202</v>
+        <v>75</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="D73" s="4">
         <v>1</v>
       </c>
       <c r="E73" t="s">
         <v>9</v>
-      </c>
-      <c r="F73" s="4">
-        <v>4.95</v>
       </c>
       <c r="G73" s="6">
         <v>20175</v>
@@ -4708,13 +4669,13 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="B74" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="D74" s="4">
         <v>1</v>
@@ -4728,19 +4689,22 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75" t="s">
-        <v>207</v>
+        <v>51</v>
       </c>
       <c r="B75" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="D75" s="4">
         <v>1</v>
       </c>
       <c r="E75" t="s">
         <v>9</v>
+      </c>
+      <c r="F75" s="4">
+        <v>4.87</v>
       </c>
       <c r="G75" s="6">
         <v>20175</v>
@@ -4748,13 +4712,13 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76" t="s">
-        <v>37</v>
+        <v>96</v>
       </c>
       <c r="B76" t="s">
-        <v>38</v>
+        <v>214</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>39</v>
+        <v>215</v>
       </c>
       <c r="D76" s="4">
         <v>1</v>
@@ -4768,19 +4732,22 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="B77" t="s">
-        <v>75</v>
+        <v>217</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="D77" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E77" t="s">
         <v>9</v>
+      </c>
+      <c r="F77" s="4">
+        <v>5</v>
       </c>
       <c r="G77" s="6">
         <v>20175</v>
@@ -4788,19 +4755,22 @@
     </row>
     <row r="78" spans="1:7">
       <c r="A78" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="B78" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="D78" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E78" t="s">
         <v>9</v>
+      </c>
+      <c r="F78" s="4">
+        <v>4.7888888888888888</v>
       </c>
       <c r="G78" s="6">
         <v>20175</v>
@@ -4808,22 +4778,19 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79" t="s">
-        <v>51</v>
+        <v>222</v>
       </c>
       <c r="B79" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="D79" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E79" t="s">
         <v>9</v>
-      </c>
-      <c r="F79" s="4">
-        <v>4.87</v>
       </c>
       <c r="G79" s="6">
         <v>20175</v>
@@ -4831,19 +4798,22 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80" t="s">
-        <v>98</v>
+        <v>225</v>
       </c>
       <c r="B80" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="D80" s="4">
         <v>1</v>
       </c>
       <c r="E80" t="s">
         <v>9</v>
+      </c>
+      <c r="F80" s="4">
+        <v>5</v>
       </c>
       <c r="G80" s="6">
         <v>20175</v>
@@ -4851,22 +4821,19 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" t="s">
-        <v>219</v>
+        <v>37</v>
       </c>
       <c r="B81" t="s">
-        <v>220</v>
+        <v>75</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="D81" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E81" t="s">
         <v>9</v>
-      </c>
-      <c r="F81" s="4">
-        <v>5</v>
       </c>
       <c r="G81" s="6">
         <v>20175</v>
@@ -4874,22 +4841,19 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82" t="s">
-        <v>222</v>
+        <v>45</v>
       </c>
       <c r="B82" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="D82" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E82" t="s">
         <v>9</v>
-      </c>
-      <c r="F82" s="4">
-        <v>4.7888888888888888</v>
       </c>
       <c r="G82" s="6">
         <v>20175</v>
@@ -4897,22 +4861,19 @@
     </row>
     <row r="83" spans="1:7">
       <c r="A83" t="s">
-        <v>65</v>
+        <v>165</v>
       </c>
       <c r="B83" t="s">
-        <v>66</v>
+        <v>231</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>67</v>
+        <v>232</v>
       </c>
       <c r="D83" s="4">
         <v>1</v>
       </c>
       <c r="E83" t="s">
         <v>9</v>
-      </c>
-      <c r="F83" s="4">
-        <v>4.741935483870968</v>
       </c>
       <c r="G83" s="6">
         <v>20175</v>
@@ -4920,22 +4881,19 @@
     </row>
     <row r="84" spans="1:7">
       <c r="A84" t="s">
-        <v>59</v>
+        <v>233</v>
       </c>
       <c r="B84" t="s">
-        <v>60</v>
+        <v>234</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>61</v>
+        <v>235</v>
       </c>
       <c r="D84" s="4">
         <v>1</v>
       </c>
       <c r="E84" t="s">
         <v>9</v>
-      </c>
-      <c r="F84" s="4">
-        <v>5</v>
       </c>
       <c r="G84" s="6">
         <v>20175</v>
@@ -4943,16 +4901,16 @@
     </row>
     <row r="85" spans="1:7">
       <c r="A85" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="B85" t="s">
-        <v>69</v>
+        <v>236</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>70</v>
+        <v>237</v>
       </c>
       <c r="D85" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E85" t="s">
         <v>9</v>
@@ -4963,19 +4921,22 @@
     </row>
     <row r="86" spans="1:7">
       <c r="A86" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="B86" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="D86" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E86" t="s">
         <v>9</v>
+      </c>
+      <c r="F86" s="4">
+        <v>5</v>
       </c>
       <c r="G86" s="6">
         <v>20175</v>
@@ -4983,22 +4944,19 @@
     </row>
     <row r="87" spans="1:7">
       <c r="A87" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="B87" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="D87" s="4">
         <v>1</v>
       </c>
       <c r="E87" t="s">
         <v>9</v>
-      </c>
-      <c r="F87" s="4">
-        <v>5</v>
       </c>
       <c r="G87" s="6">
         <v>20175</v>
@@ -5006,22 +4964,22 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88" t="s">
-        <v>45</v>
+        <v>243</v>
       </c>
       <c r="B88" t="s">
-        <v>54</v>
+        <v>244</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>55</v>
+        <v>245</v>
       </c>
       <c r="D88" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E88" t="s">
         <v>9</v>
       </c>
       <c r="F88" s="4">
-        <v>4.68</v>
+        <v>2.5</v>
       </c>
       <c r="G88" s="6">
         <v>20175</v>
@@ -5029,16 +4987,16 @@
     </row>
     <row r="89" spans="1:7">
       <c r="A89" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="B89" t="s">
-        <v>75</v>
+        <v>246</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>231</v>
+        <v>247</v>
       </c>
       <c r="D89" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E89" t="s">
         <v>9</v>
@@ -5049,19 +5007,22 @@
     </row>
     <row r="90" spans="1:7">
       <c r="A90" t="s">
-        <v>45</v>
+        <v>248</v>
       </c>
       <c r="B90" t="s">
-        <v>232</v>
+        <v>126</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>233</v>
+        <v>249</v>
       </c>
       <c r="D90" s="4">
         <v>1</v>
       </c>
       <c r="E90" t="s">
         <v>9</v>
+      </c>
+      <c r="F90" s="4">
+        <v>5</v>
       </c>
       <c r="G90" s="6">
         <v>20175</v>
@@ -5069,13 +5030,13 @@
     </row>
     <row r="91" spans="1:7">
       <c r="A91" t="s">
-        <v>167</v>
+        <v>108</v>
       </c>
       <c r="B91" t="s">
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>235</v>
+        <v>251</v>
       </c>
       <c r="D91" s="4">
         <v>1</v>
@@ -5089,19 +5050,22 @@
     </row>
     <row r="92" spans="1:7">
       <c r="A92" t="s">
-        <v>236</v>
+        <v>19</v>
       </c>
       <c r="B92" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="D92" s="4">
         <v>1</v>
       </c>
       <c r="E92" t="s">
         <v>9</v>
+      </c>
+      <c r="F92" s="4">
+        <v>5</v>
       </c>
       <c r="G92" s="6">
         <v>20175</v>
@@ -5109,19 +5073,22 @@
     </row>
     <row r="93" spans="1:7">
       <c r="A93" t="s">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="B93" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="D93" s="4">
         <v>1</v>
       </c>
       <c r="E93" t="s">
         <v>9</v>
+      </c>
+      <c r="F93" s="4">
+        <v>4.5999999999999996</v>
       </c>
       <c r="G93" s="6">
         <v>20175</v>
@@ -5129,13 +5096,13 @@
     </row>
     <row r="94" spans="1:7">
       <c r="A94" t="s">
-        <v>241</v>
+        <v>10</v>
       </c>
       <c r="B94" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c r="D94" s="4">
         <v>1</v>
@@ -5144,7 +5111,7 @@
         <v>9</v>
       </c>
       <c r="F94" s="4">
-        <v>5</v>
+        <v>4.9565217391304346</v>
       </c>
       <c r="G94" s="6">
         <v>20175</v>
@@ -5152,13 +5119,13 @@
     </row>
     <row r="95" spans="1:7">
       <c r="A95" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="B95" t="s">
-        <v>226</v>
+        <v>259</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="D95" s="4">
         <v>1</v>
@@ -5172,22 +5139,22 @@
     </row>
     <row r="96" spans="1:7">
       <c r="A96" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="B96" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="D96" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E96" t="s">
         <v>9</v>
       </c>
       <c r="F96" s="4">
-        <v>2.5</v>
+        <v>4.75</v>
       </c>
       <c r="G96" s="6">
         <v>20175</v>
@@ -5195,19 +5162,22 @@
     </row>
     <row r="97" spans="1:7">
       <c r="A97" t="s">
-        <v>56</v>
+        <v>264</v>
       </c>
       <c r="B97" t="s">
-        <v>249</v>
+        <v>265</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>250</v>
+        <v>266</v>
       </c>
       <c r="D97" s="4">
         <v>2</v>
       </c>
       <c r="E97" t="s">
         <v>9</v>
+      </c>
+      <c r="F97" s="4">
+        <v>4.916666666666667</v>
       </c>
       <c r="G97" s="6">
         <v>20175</v>
@@ -5215,22 +5185,19 @@
     </row>
     <row r="98" spans="1:7">
       <c r="A98" t="s">
-        <v>251</v>
+        <v>267</v>
       </c>
       <c r="B98" t="s">
-        <v>128</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>252</v>
+        <v>268</v>
+      </c>
+      <c r="C98" s="4">
+        <v>99999999</v>
       </c>
       <c r="D98" s="4">
         <v>1</v>
       </c>
       <c r="E98" t="s">
         <v>9</v>
-      </c>
-      <c r="F98" s="4">
-        <v>5</v>
       </c>
       <c r="G98" s="6">
         <v>20175</v>
@@ -5238,13 +5205,13 @@
     </row>
     <row r="99" spans="1:7">
       <c r="A99" t="s">
-        <v>110</v>
+        <v>269</v>
       </c>
       <c r="B99" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="D99" s="4">
         <v>1</v>
@@ -5258,13 +5225,13 @@
     </row>
     <row r="100" spans="1:7">
       <c r="A100" t="s">
-        <v>19</v>
+        <v>272</v>
       </c>
       <c r="B100" t="s">
-        <v>255</v>
+        <v>273</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>256</v>
+        <v>274</v>
       </c>
       <c r="D100" s="4">
         <v>1</v>
@@ -5281,22 +5248,19 @@
     </row>
     <row r="101" spans="1:7">
       <c r="A101" t="s">
-        <v>10</v>
+        <v>275</v>
       </c>
       <c r="B101" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>258</v>
+        <v>277</v>
       </c>
       <c r="D101" s="4">
         <v>1</v>
       </c>
       <c r="E101" t="s">
         <v>9</v>
-      </c>
-      <c r="F101" s="4">
-        <v>4.5999999999999996</v>
       </c>
       <c r="G101" s="6">
         <v>20175</v>
@@ -5304,22 +5268,22 @@
     </row>
     <row r="102" spans="1:7">
       <c r="A102" t="s">
-        <v>10</v>
+        <v>278</v>
       </c>
       <c r="B102" t="s">
-        <v>259</v>
+        <v>279</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="D102" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E102" t="s">
         <v>9</v>
       </c>
       <c r="F102" s="4">
-        <v>4.9565217391304346</v>
+        <v>5</v>
       </c>
       <c r="G102" s="6">
         <v>20175</v>
@@ -5327,19 +5291,22 @@
     </row>
     <row r="103" spans="1:7">
       <c r="A103" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="B103" t="s">
-        <v>262</v>
+        <v>282</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>263</v>
+        <v>283</v>
       </c>
       <c r="D103" s="4">
         <v>1</v>
       </c>
       <c r="E103" t="s">
         <v>9</v>
+      </c>
+      <c r="F103" s="4">
+        <v>4.84</v>
       </c>
       <c r="G103" s="6">
         <v>20175</v>
@@ -5347,22 +5314,22 @@
     </row>
     <row r="104" spans="1:7">
       <c r="A104" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="B104" t="s">
-        <v>265</v>
+        <v>285</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="D104" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E104" t="s">
         <v>9</v>
       </c>
       <c r="F104" s="4">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="G104" s="6">
         <v>20175</v>
@@ -5370,22 +5337,19 @@
     </row>
     <row r="105" spans="1:7">
       <c r="A105" t="s">
-        <v>267</v>
+        <v>287</v>
       </c>
       <c r="B105" t="s">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>269</v>
+        <v>289</v>
       </c>
       <c r="D105" s="4">
         <v>2</v>
       </c>
       <c r="E105" t="s">
         <v>9</v>
-      </c>
-      <c r="F105" s="4">
-        <v>4.916666666666667</v>
       </c>
       <c r="G105" s="6">
         <v>20175</v>
@@ -5393,19 +5357,22 @@
     </row>
     <row r="106" spans="1:7">
       <c r="A106" t="s">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="B106" t="s">
-        <v>271</v>
+        <v>291</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>272</v>
+        <v>292</v>
       </c>
       <c r="D106" s="4">
         <v>1</v>
       </c>
       <c r="E106" t="s">
         <v>9</v>
+      </c>
+      <c r="F106" s="4">
+        <v>4.71875</v>
       </c>
       <c r="G106" s="6">
         <v>20175</v>
@@ -5413,19 +5380,22 @@
     </row>
     <row r="107" spans="1:7">
       <c r="A107" t="s">
-        <v>273</v>
+        <v>56</v>
       </c>
       <c r="B107" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>275</v>
+        <v>294</v>
       </c>
       <c r="D107" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E107" t="s">
         <v>9</v>
+      </c>
+      <c r="F107" s="4">
+        <v>4.8</v>
       </c>
       <c r="G107" s="6">
         <v>20175</v>
@@ -5433,13 +5403,13 @@
     </row>
     <row r="108" spans="1:7">
       <c r="A108" t="s">
-        <v>276</v>
+        <v>295</v>
       </c>
       <c r="B108" t="s">
-        <v>277</v>
+        <v>296</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>278</v>
+        <v>297</v>
       </c>
       <c r="D108" s="4">
         <v>1</v>
@@ -5448,7 +5418,7 @@
         <v>9</v>
       </c>
       <c r="F108" s="4">
-        <v>5</v>
+        <v>4.6363636363636367</v>
       </c>
       <c r="G108" s="6">
         <v>20175</v>
@@ -5456,19 +5426,22 @@
     </row>
     <row r="109" spans="1:7">
       <c r="A109" t="s">
-        <v>279</v>
+        <v>298</v>
       </c>
       <c r="B109" t="s">
-        <v>280</v>
+        <v>299</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>281</v>
+        <v>300</v>
       </c>
       <c r="D109" s="4">
         <v>1</v>
       </c>
       <c r="E109" t="s">
         <v>9</v>
+      </c>
+      <c r="F109" s="4">
+        <v>4.6744186046511631</v>
       </c>
       <c r="G109" s="6">
         <v>20175</v>
@@ -5476,16 +5449,16 @@
     </row>
     <row r="110" spans="1:7">
       <c r="A110" t="s">
-        <v>282</v>
+        <v>301</v>
       </c>
       <c r="B110" t="s">
-        <v>283</v>
+        <v>302</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>284</v>
+        <v>303</v>
       </c>
       <c r="D110" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E110" t="s">
         <v>9</v>
@@ -5499,22 +5472,19 @@
     </row>
     <row r="111" spans="1:7">
       <c r="A111" t="s">
-        <v>285</v>
+        <v>19</v>
       </c>
       <c r="B111" t="s">
-        <v>286</v>
+        <v>304</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>287</v>
+        <v>305</v>
       </c>
       <c r="D111" s="4">
         <v>1</v>
       </c>
       <c r="E111" t="s">
         <v>9</v>
-      </c>
-      <c r="F111" s="4">
-        <v>4.84</v>
       </c>
       <c r="G111" s="6">
         <v>20175</v>
@@ -5522,22 +5492,19 @@
     </row>
     <row r="112" spans="1:7">
       <c r="A112" t="s">
-        <v>288</v>
+        <v>306</v>
       </c>
       <c r="B112" t="s">
-        <v>289</v>
+        <v>52</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="D112" s="4">
         <v>1</v>
       </c>
       <c r="E112" t="s">
         <v>9</v>
-      </c>
-      <c r="F112" s="4">
-        <v>4.2</v>
       </c>
       <c r="G112" s="6">
         <v>20175</v>
@@ -5545,16 +5512,16 @@
     </row>
     <row r="113" spans="1:7">
       <c r="A113" t="s">
-        <v>291</v>
+        <v>308</v>
       </c>
       <c r="B113" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>293</v>
+        <v>310</v>
       </c>
       <c r="D113" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E113" t="s">
         <v>9</v>
@@ -5565,22 +5532,19 @@
     </row>
     <row r="114" spans="1:7">
       <c r="A114" t="s">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="B114" t="s">
-        <v>295</v>
+        <v>312</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>296</v>
+        <v>313</v>
       </c>
       <c r="D114" s="4">
         <v>1</v>
       </c>
       <c r="E114" t="s">
         <v>9</v>
-      </c>
-      <c r="F114" s="4">
-        <v>4.71875</v>
       </c>
       <c r="G114" s="6">
         <v>20175</v>
@@ -5588,22 +5552,19 @@
     </row>
     <row r="115" spans="1:7">
       <c r="A115" t="s">
-        <v>56</v>
+        <v>108</v>
       </c>
       <c r="B115" t="s">
-        <v>297</v>
+        <v>314</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>298</v>
+        <v>315</v>
       </c>
       <c r="D115" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E115" t="s">
         <v>9</v>
-      </c>
-      <c r="F115" s="4">
-        <v>4.8</v>
       </c>
       <c r="G115" s="6">
         <v>20175</v>
@@ -5611,22 +5572,22 @@
     </row>
     <row r="116" spans="1:7">
       <c r="A116" t="s">
-        <v>299</v>
+        <v>316</v>
       </c>
       <c r="B116" t="s">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>301</v>
+        <v>318</v>
       </c>
       <c r="D116" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E116" t="s">
         <v>9</v>
       </c>
       <c r="F116" s="4">
-        <v>4.6363636363636367</v>
+        <v>4.7543859649122808</v>
       </c>
       <c r="G116" s="6">
         <v>20175</v>
@@ -5634,13 +5595,13 @@
     </row>
     <row r="117" spans="1:7">
       <c r="A117" t="s">
-        <v>302</v>
+        <v>319</v>
       </c>
       <c r="B117" t="s">
-        <v>303</v>
+        <v>320</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>304</v>
+        <v>321</v>
       </c>
       <c r="D117" s="4">
         <v>1</v>
@@ -5649,7 +5610,7 @@
         <v>9</v>
       </c>
       <c r="F117" s="4">
-        <v>4.6744186046511631</v>
+        <v>4.6976744186046524</v>
       </c>
       <c r="G117" s="6">
         <v>20175</v>
@@ -5657,13 +5618,13 @@
     </row>
     <row r="118" spans="1:7">
       <c r="A118" t="s">
-        <v>305</v>
+        <v>322</v>
       </c>
       <c r="B118" t="s">
-        <v>306</v>
+        <v>323</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>307</v>
+        <v>324</v>
       </c>
       <c r="D118" s="4">
         <v>1</v>
@@ -5672,7 +5633,7 @@
         <v>9</v>
       </c>
       <c r="F118" s="4">
-        <v>5</v>
+        <v>4.833333333333333</v>
       </c>
       <c r="G118" s="6">
         <v>20175</v>
@@ -5680,19 +5641,22 @@
     </row>
     <row r="119" spans="1:7">
       <c r="A119" t="s">
-        <v>19</v>
+        <v>325</v>
       </c>
       <c r="B119" t="s">
-        <v>308</v>
+        <v>326</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>309</v>
+        <v>327</v>
       </c>
       <c r="D119" s="4">
         <v>1</v>
       </c>
       <c r="E119" t="s">
         <v>9</v>
+      </c>
+      <c r="F119" s="4">
+        <v>5</v>
       </c>
       <c r="G119" s="6">
         <v>20175</v>
@@ -5700,19 +5664,22 @@
     </row>
     <row r="120" spans="1:7">
       <c r="A120" t="s">
-        <v>310</v>
+        <v>328</v>
       </c>
       <c r="B120" t="s">
-        <v>52</v>
+        <v>329</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>311</v>
+        <v>330</v>
       </c>
       <c r="D120" s="4">
         <v>1</v>
       </c>
       <c r="E120" t="s">
         <v>9</v>
+      </c>
+      <c r="F120" s="4">
+        <v>4.8272727272727272</v>
       </c>
       <c r="G120" s="6">
         <v>20175</v>
@@ -5720,19 +5687,22 @@
     </row>
     <row r="121" spans="1:7">
       <c r="A121" t="s">
-        <v>312</v>
+        <v>328</v>
       </c>
       <c r="B121" t="s">
-        <v>313</v>
+        <v>331</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>314</v>
+        <v>332</v>
       </c>
       <c r="D121" s="4">
         <v>1</v>
       </c>
       <c r="E121" t="s">
         <v>9</v>
+      </c>
+      <c r="F121" s="4">
+        <v>4.875</v>
       </c>
       <c r="G121" s="6">
         <v>20175</v>
@@ -5740,13 +5710,13 @@
     </row>
     <row r="122" spans="1:7">
       <c r="A122" t="s">
-        <v>315</v>
+        <v>207</v>
       </c>
       <c r="B122" t="s">
-        <v>316</v>
+        <v>333</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D122" s="4">
         <v>1</v>
@@ -5760,19 +5730,22 @@
     </row>
     <row r="123" spans="1:7">
       <c r="A123" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="B123" t="s">
-        <v>318</v>
+        <v>335</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>319</v>
+        <v>336</v>
       </c>
       <c r="D123" s="4">
         <v>1</v>
       </c>
       <c r="E123" t="s">
         <v>9</v>
+      </c>
+      <c r="F123" s="4">
+        <v>3.333333333333333</v>
       </c>
       <c r="G123" s="6">
         <v>20175</v>
@@ -5780,22 +5753,22 @@
     </row>
     <row r="124" spans="1:7">
       <c r="A124" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="B124" t="s">
-        <v>321</v>
+        <v>63</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>322</v>
+        <v>338</v>
       </c>
       <c r="D124" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E124" t="s">
         <v>9</v>
       </c>
       <c r="F124" s="4">
-        <v>4.7543859649122808</v>
+        <v>4.8636363636363633</v>
       </c>
       <c r="G124" s="6">
         <v>20175</v>
@@ -5803,22 +5776,19 @@
     </row>
     <row r="125" spans="1:7">
       <c r="A125" t="s">
-        <v>323</v>
+        <v>96</v>
       </c>
       <c r="B125" t="s">
-        <v>324</v>
+        <v>339</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>325</v>
+        <v>340</v>
       </c>
       <c r="D125" s="4">
         <v>1</v>
       </c>
       <c r="E125" t="s">
         <v>9</v>
-      </c>
-      <c r="F125" s="4">
-        <v>4.6976744186046524</v>
       </c>
       <c r="G125" s="6">
         <v>20175</v>
@@ -5826,13 +5796,13 @@
     </row>
     <row r="126" spans="1:7">
       <c r="A126" t="s">
-        <v>326</v>
+        <v>45</v>
       </c>
       <c r="B126" t="s">
-        <v>327</v>
+        <v>341</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>328</v>
+        <v>342</v>
       </c>
       <c r="D126" s="4">
         <v>1</v>
@@ -5841,7 +5811,7 @@
         <v>9</v>
       </c>
       <c r="F126" s="4">
-        <v>4.833333333333333</v>
+        <v>4.3953488372093021</v>
       </c>
       <c r="G126" s="6">
         <v>20175</v>
@@ -5849,22 +5819,19 @@
     </row>
     <row r="127" spans="1:7">
       <c r="A127" t="s">
-        <v>329</v>
+        <v>343</v>
       </c>
       <c r="B127" t="s">
-        <v>330</v>
+        <v>344</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>331</v>
+        <v>345</v>
       </c>
       <c r="D127" s="4">
         <v>1</v>
       </c>
       <c r="E127" t="s">
         <v>9</v>
-      </c>
-      <c r="F127" s="4">
-        <v>5</v>
       </c>
       <c r="G127" s="6">
         <v>20175</v>
@@ -5872,13 +5839,13 @@
     </row>
     <row r="128" spans="1:7">
       <c r="A128" t="s">
-        <v>332</v>
+        <v>108</v>
       </c>
       <c r="B128" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
       <c r="D128" s="4">
         <v>1</v>
@@ -5887,7 +5854,7 @@
         <v>9</v>
       </c>
       <c r="F128" s="4">
-        <v>4.8272727272727272</v>
+        <v>4.8275862068965516</v>
       </c>
       <c r="G128" s="6">
         <v>20175</v>
@@ -5895,22 +5862,22 @@
     </row>
     <row r="129" spans="1:7">
       <c r="A129" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="B129" t="s">
-        <v>335</v>
+        <v>349</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>336</v>
+        <v>350</v>
       </c>
       <c r="D129" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E129" t="s">
         <v>9</v>
       </c>
       <c r="F129" s="4">
-        <v>4.875</v>
+        <v>5</v>
       </c>
       <c r="G129" s="6">
         <v>20175</v>
@@ -5918,19 +5885,22 @@
     </row>
     <row r="130" spans="1:7">
       <c r="A130" t="s">
-        <v>210</v>
+        <v>351</v>
       </c>
       <c r="B130" t="s">
-        <v>337</v>
+        <v>352</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>338</v>
+        <v>353</v>
       </c>
       <c r="D130" s="4">
         <v>1</v>
       </c>
       <c r="E130" t="s">
         <v>9</v>
+      </c>
+      <c r="F130" s="4">
+        <v>4.6923076923076934</v>
       </c>
       <c r="G130" s="6">
         <v>20175</v>
@@ -5938,13 +5908,13 @@
     </row>
     <row r="131" spans="1:7">
       <c r="A131" t="s">
-        <v>98</v>
+        <v>241</v>
       </c>
       <c r="B131" t="s">
-        <v>339</v>
-      </c>
-      <c r="C131" s="4" t="s">
-        <v>340</v>
+        <v>354</v>
+      </c>
+      <c r="C131" s="4">
+        <v>86374</v>
       </c>
       <c r="D131" s="4">
         <v>1</v>
@@ -5953,7 +5923,7 @@
         <v>9</v>
       </c>
       <c r="F131" s="4">
-        <v>3.333333333333333</v>
+        <v>4.8120300751879697</v>
       </c>
       <c r="G131" s="6">
         <v>20175</v>
@@ -5961,22 +5931,19 @@
     </row>
     <row r="132" spans="1:7">
       <c r="A132" t="s">
-        <v>341</v>
+        <v>298</v>
       </c>
       <c r="B132" t="s">
-        <v>63</v>
+        <v>355</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>342</v>
+        <v>356</v>
       </c>
       <c r="D132" s="4">
         <v>1</v>
       </c>
       <c r="E132" t="s">
         <v>9</v>
-      </c>
-      <c r="F132" s="4">
-        <v>4.8636363636363633</v>
       </c>
       <c r="G132" s="6">
         <v>20175</v>
@@ -5984,19 +5951,22 @@
     </row>
     <row r="133" spans="1:7">
       <c r="A133" t="s">
-        <v>98</v>
+        <v>357</v>
       </c>
       <c r="B133" t="s">
-        <v>343</v>
+        <v>358</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>344</v>
+        <v>359</v>
       </c>
       <c r="D133" s="4">
         <v>1</v>
       </c>
       <c r="E133" t="s">
         <v>9</v>
+      </c>
+      <c r="F133" s="4">
+        <v>4.8648648648648649</v>
       </c>
       <c r="G133" s="6">
         <v>20175</v>
@@ -6004,13 +5974,13 @@
     </row>
     <row r="134" spans="1:7">
       <c r="A134" t="s">
-        <v>45</v>
+        <v>360</v>
       </c>
       <c r="B134" t="s">
-        <v>345</v>
+        <v>361</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>346</v>
+        <v>362</v>
       </c>
       <c r="D134" s="4">
         <v>1</v>
@@ -6019,7 +5989,7 @@
         <v>9</v>
       </c>
       <c r="F134" s="4">
-        <v>4.3953488372093021</v>
+        <v>5</v>
       </c>
       <c r="G134" s="6">
         <v>20175</v>
@@ -6027,13 +5997,13 @@
     </row>
     <row r="135" spans="1:7">
       <c r="A135" t="s">
-        <v>347</v>
+        <v>37</v>
       </c>
       <c r="B135" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>349</v>
+        <v>363</v>
       </c>
       <c r="D135" s="4">
         <v>1</v>
@@ -6047,13 +6017,13 @@
     </row>
     <row r="136" spans="1:7">
       <c r="A136" t="s">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="B136" t="s">
-        <v>350</v>
+        <v>364</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>351</v>
+        <v>365</v>
       </c>
       <c r="D136" s="4">
         <v>1</v>
@@ -6062,7 +6032,7 @@
         <v>9</v>
       </c>
       <c r="F136" s="4">
-        <v>4.8275862068965516</v>
+        <v>5</v>
       </c>
       <c r="G136" s="6">
         <v>20175</v>
@@ -6070,13 +6040,13 @@
     </row>
     <row r="137" spans="1:7">
       <c r="A137" t="s">
-        <v>352</v>
+        <v>191</v>
       </c>
       <c r="B137" t="s">
-        <v>353</v>
+        <v>366</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>354</v>
+        <v>367</v>
       </c>
       <c r="D137" s="4">
         <v>2</v>
@@ -6093,16 +6063,16 @@
     </row>
     <row r="138" spans="1:7">
       <c r="A138" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="B138" t="s">
-        <v>57</v>
+        <v>368</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>58</v>
+        <v>369</v>
       </c>
       <c r="D138" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E138" t="s">
         <v>9</v>
@@ -6113,13 +6083,13 @@
     </row>
     <row r="139" spans="1:7">
       <c r="A139" t="s">
-        <v>355</v>
+        <v>325</v>
       </c>
       <c r="B139" t="s">
-        <v>356</v>
+        <v>370</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>357</v>
+        <v>371</v>
       </c>
       <c r="D139" s="4">
         <v>1</v>
@@ -6128,7 +6098,7 @@
         <v>9</v>
       </c>
       <c r="F139" s="4">
-        <v>4.6923076923076934</v>
+        <v>4.8867924528301883</v>
       </c>
       <c r="G139" s="6">
         <v>20175</v>
@@ -6136,19 +6106,22 @@
     </row>
     <row r="140" spans="1:7">
       <c r="A140" t="s">
-        <v>45</v>
+        <v>372</v>
       </c>
       <c r="B140" t="s">
-        <v>46</v>
+        <v>373</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>47</v>
+        <v>374</v>
       </c>
       <c r="D140" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E140" t="s">
         <v>9</v>
+      </c>
+      <c r="F140" s="4">
+        <v>4.666666666666667</v>
       </c>
       <c r="G140" s="6">
         <v>20175</v>
@@ -6156,22 +6129,19 @@
     </row>
     <row r="141" spans="1:7">
       <c r="A141" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="B141" t="s">
-        <v>52</v>
+        <v>375</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>53</v>
+        <v>376</v>
       </c>
       <c r="D141" s="4">
         <v>1</v>
       </c>
       <c r="E141" t="s">
         <v>9</v>
-      </c>
-      <c r="F141" s="4">
-        <v>4.6086956521739131</v>
       </c>
       <c r="G141" s="6">
         <v>20175</v>
@@ -6179,19 +6149,22 @@
     </row>
     <row r="142" spans="1:7">
       <c r="A142" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="B142" t="s">
-        <v>35</v>
+        <v>377</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>36</v>
+        <v>378</v>
       </c>
       <c r="D142" s="4">
         <v>1</v>
       </c>
       <c r="E142" t="s">
         <v>9</v>
+      </c>
+      <c r="F142" s="4">
+        <v>5</v>
       </c>
       <c r="G142" s="6">
         <v>20175</v>
@@ -6199,22 +6172,19 @@
     </row>
     <row r="143" spans="1:7">
       <c r="A143" t="s">
-        <v>244</v>
+        <v>379</v>
       </c>
       <c r="B143" t="s">
-        <v>358</v>
+        <v>380</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>359</v>
+        <v>381</v>
       </c>
       <c r="D143" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E143" t="s">
         <v>9</v>
-      </c>
-      <c r="F143" s="4">
-        <v>4.8120300751879697</v>
       </c>
       <c r="G143" s="6">
         <v>20175</v>
@@ -6222,19 +6192,22 @@
     </row>
     <row r="144" spans="1:7">
       <c r="A144" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="B144" t="s">
-        <v>360</v>
+        <v>382</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>361</v>
+        <v>383</v>
       </c>
       <c r="D144" s="4">
         <v>1</v>
       </c>
       <c r="E144" t="s">
         <v>9</v>
+      </c>
+      <c r="F144" s="4">
+        <v>3.8571428571428572</v>
       </c>
       <c r="G144" s="6">
         <v>20175</v>
@@ -6242,13 +6215,13 @@
     </row>
     <row r="145" spans="1:7">
       <c r="A145" t="s">
-        <v>362</v>
+        <v>384</v>
       </c>
       <c r="B145" t="s">
-        <v>363</v>
+        <v>385</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>364</v>
+        <v>386</v>
       </c>
       <c r="D145" s="4">
         <v>1</v>
@@ -6257,7 +6230,7 @@
         <v>9</v>
       </c>
       <c r="F145" s="4">
-        <v>4.8648648648648649</v>
+        <v>4.9444444444444446</v>
       </c>
       <c r="G145" s="6">
         <v>20175</v>
@@ -6265,22 +6238,19 @@
     </row>
     <row r="146" spans="1:7">
       <c r="A146" t="s">
-        <v>365</v>
+        <v>258</v>
       </c>
       <c r="B146" t="s">
-        <v>366</v>
+        <v>387</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>367</v>
+        <v>388</v>
       </c>
       <c r="D146" s="4">
         <v>1</v>
       </c>
       <c r="E146" t="s">
         <v>9</v>
-      </c>
-      <c r="F146" s="4">
-        <v>5</v>
       </c>
       <c r="G146" s="6">
         <v>20175</v>
@@ -6288,13 +6258,13 @@
     </row>
     <row r="147" spans="1:7">
       <c r="A147" t="s">
-        <v>37</v>
+        <v>389</v>
       </c>
       <c r="B147" t="s">
-        <v>339</v>
+        <v>368</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>368</v>
+        <v>390</v>
       </c>
       <c r="D147" s="4">
         <v>1</v>
@@ -6308,19 +6278,22 @@
     </row>
     <row r="148" spans="1:7">
       <c r="A148" t="s">
-        <v>71</v>
+        <v>391</v>
       </c>
       <c r="B148" t="s">
-        <v>72</v>
+        <v>380</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>73</v>
+        <v>392</v>
       </c>
       <c r="D148" s="4">
         <v>1</v>
       </c>
       <c r="E148" t="s">
         <v>9</v>
+      </c>
+      <c r="F148" s="4">
+        <v>5</v>
       </c>
       <c r="G148" s="6">
         <v>20175</v>
@@ -6328,22 +6301,19 @@
     </row>
     <row r="149" spans="1:7">
       <c r="A149" t="s">
-        <v>10</v>
+        <v>393</v>
       </c>
       <c r="B149" t="s">
-        <v>43</v>
+        <v>259</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>44</v>
+        <v>394</v>
       </c>
       <c r="D149" s="4">
         <v>1</v>
       </c>
       <c r="E149" t="s">
         <v>9</v>
-      </c>
-      <c r="F149" s="4">
-        <v>4.7058823529411766</v>
       </c>
       <c r="G149" s="6">
         <v>20175</v>
@@ -6351,13 +6321,13 @@
     </row>
     <row r="150" spans="1:7">
       <c r="A150" t="s">
-        <v>40</v>
+        <v>395</v>
       </c>
       <c r="B150" t="s">
-        <v>41</v>
+        <v>396</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>42</v>
+        <v>397</v>
       </c>
       <c r="D150" s="4">
         <v>1</v>
@@ -6366,7 +6336,7 @@
         <v>9</v>
       </c>
       <c r="F150" s="4">
-        <v>5</v>
+        <v>3.666666666666667</v>
       </c>
       <c r="G150" s="6">
         <v>20175</v>
@@ -6374,22 +6344,22 @@
     </row>
     <row r="151" spans="1:7">
       <c r="A151" t="s">
-        <v>48</v>
+        <v>398</v>
       </c>
       <c r="B151" t="s">
-        <v>49</v>
+        <v>399</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>50</v>
+        <v>400</v>
       </c>
       <c r="D151" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E151" t="s">
         <v>9</v>
       </c>
       <c r="F151" s="4">
-        <v>4.9622641509433958</v>
+        <v>5</v>
       </c>
       <c r="G151" s="6">
         <v>20175</v>
@@ -6397,22 +6367,22 @@
     </row>
     <row r="152" spans="1:7">
       <c r="A152" t="s">
-        <v>65</v>
+        <v>401</v>
       </c>
       <c r="B152" t="s">
-        <v>369</v>
+        <v>402</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>370</v>
+        <v>403</v>
       </c>
       <c r="D152" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E152" t="s">
         <v>9</v>
       </c>
       <c r="F152" s="4">
-        <v>5</v>
+        <v>4.8717948717948714</v>
       </c>
       <c r="G152" s="6">
         <v>20175</v>
@@ -6420,22 +6390,22 @@
     </row>
     <row r="153" spans="1:7">
       <c r="A153" t="s">
-        <v>193</v>
+        <v>65</v>
       </c>
       <c r="B153" t="s">
-        <v>371</v>
+        <v>404</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>372</v>
+        <v>405</v>
       </c>
       <c r="D153" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E153" t="s">
         <v>9</v>
       </c>
       <c r="F153" s="4">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="G153" s="6">
         <v>20175</v>
@@ -6443,19 +6413,22 @@
     </row>
     <row r="154" spans="1:7">
       <c r="A154" t="s">
-        <v>10</v>
+        <v>406</v>
       </c>
       <c r="B154" t="s">
-        <v>373</v>
+        <v>407</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="D154" s="4">
         <v>1</v>
       </c>
       <c r="E154" t="s">
         <v>9</v>
+      </c>
+      <c r="F154" s="4">
+        <v>4.92</v>
       </c>
       <c r="G154" s="6">
         <v>20175</v>
@@ -6463,13 +6436,13 @@
     </row>
     <row r="155" spans="1:7">
       <c r="A155" t="s">
-        <v>329</v>
+        <v>409</v>
       </c>
       <c r="B155" t="s">
-        <v>375</v>
+        <v>410</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>376</v>
+        <v>411</v>
       </c>
       <c r="D155" s="4">
         <v>1</v>
@@ -6478,7 +6451,7 @@
         <v>9</v>
       </c>
       <c r="F155" s="4">
-        <v>4.8867924528301883</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="G155" s="6">
         <v>20175</v>
@@ -6486,22 +6459,22 @@
     </row>
     <row r="156" spans="1:7">
       <c r="A156" t="s">
-        <v>377</v>
+        <v>412</v>
       </c>
       <c r="B156" t="s">
-        <v>378</v>
-      </c>
-      <c r="C156" s="4" t="s">
-        <v>379</v>
+        <v>413</v>
+      </c>
+      <c r="C156" s="4">
+        <v>34141</v>
       </c>
       <c r="D156" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E156" t="s">
         <v>9</v>
       </c>
       <c r="F156" s="4">
-        <v>4.666666666666667</v>
+        <v>4.8560606060606064</v>
       </c>
       <c r="G156" s="6">
         <v>20175</v>
@@ -6509,19 +6482,22 @@
     </row>
     <row r="157" spans="1:7">
       <c r="A157" t="s">
-        <v>65</v>
+        <v>414</v>
       </c>
       <c r="B157" t="s">
-        <v>380</v>
+        <v>415</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>381</v>
+        <v>416</v>
       </c>
       <c r="D157" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E157" t="s">
         <v>9</v>
+      </c>
+      <c r="F157" s="4">
+        <v>4.958333333333333</v>
       </c>
       <c r="G157" s="6">
         <v>20175</v>
@@ -6529,16 +6505,16 @@
     </row>
     <row r="158" spans="1:7">
       <c r="A158" t="s">
-        <v>65</v>
+        <v>417</v>
       </c>
       <c r="B158" t="s">
-        <v>382</v>
+        <v>418</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>383</v>
+        <v>419</v>
       </c>
       <c r="D158" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E158" t="s">
         <v>9</v>
@@ -6552,19 +6528,22 @@
     </row>
     <row r="159" spans="1:7">
       <c r="A159" t="s">
-        <v>384</v>
+        <v>108</v>
       </c>
       <c r="B159" t="s">
-        <v>385</v>
+        <v>299</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>386</v>
+        <v>420</v>
       </c>
       <c r="D159" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E159" t="s">
         <v>9</v>
+      </c>
+      <c r="F159" s="4">
+        <v>3.166666666666667</v>
       </c>
       <c r="G159" s="6">
         <v>20175</v>
@@ -6572,22 +6551,22 @@
     </row>
     <row r="160" spans="1:7">
       <c r="A160" t="s">
-        <v>299</v>
+        <v>421</v>
       </c>
       <c r="B160" t="s">
-        <v>387</v>
+        <v>422</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>388</v>
+        <v>423</v>
       </c>
       <c r="D160" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E160" t="s">
         <v>9</v>
       </c>
       <c r="F160" s="4">
-        <v>3.8571428571428572</v>
+        <v>5</v>
       </c>
       <c r="G160" s="6">
         <v>20175</v>
@@ -6595,13 +6574,13 @@
     </row>
     <row r="161" spans="1:7">
       <c r="A161" t="s">
-        <v>389</v>
+        <v>424</v>
       </c>
       <c r="B161" t="s">
-        <v>390</v>
+        <v>425</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>391</v>
+        <v>426</v>
       </c>
       <c r="D161" s="4">
         <v>1</v>
@@ -6610,7 +6589,7 @@
         <v>9</v>
       </c>
       <c r="F161" s="4">
-        <v>4.9444444444444446</v>
+        <v>4.6557377049180326</v>
       </c>
       <c r="G161" s="6">
         <v>20175</v>
@@ -6618,13 +6597,13 @@
     </row>
     <row r="162" spans="1:7">
       <c r="A162" t="s">
-        <v>261</v>
+        <v>427</v>
       </c>
       <c r="B162" t="s">
-        <v>392</v>
+        <v>428</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>393</v>
+        <v>429</v>
       </c>
       <c r="D162" s="4">
         <v>1</v>
@@ -6638,19 +6617,22 @@
     </row>
     <row r="163" spans="1:7">
       <c r="A163" t="s">
-        <v>394</v>
+        <v>65</v>
       </c>
       <c r="B163" t="s">
-        <v>373</v>
+        <v>430</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>395</v>
+        <v>431</v>
       </c>
       <c r="D163" s="4">
         <v>1</v>
       </c>
       <c r="E163" t="s">
         <v>9</v>
+      </c>
+      <c r="F163" s="4">
+        <v>4.333333333333333</v>
       </c>
       <c r="G163" s="6">
         <v>20175</v>
@@ -6658,22 +6640,19 @@
     </row>
     <row r="164" spans="1:7">
       <c r="A164" t="s">
-        <v>396</v>
+        <v>432</v>
       </c>
       <c r="B164" t="s">
-        <v>385</v>
+        <v>433</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>397</v>
+        <v>434</v>
       </c>
       <c r="D164" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E164" t="s">
         <v>9</v>
-      </c>
-      <c r="F164" s="4">
-        <v>5</v>
       </c>
       <c r="G164" s="6">
         <v>20175</v>
@@ -6681,19 +6660,22 @@
     </row>
     <row r="165" spans="1:7">
       <c r="A165" t="s">
-        <v>398</v>
+        <v>435</v>
       </c>
       <c r="B165" t="s">
-        <v>262</v>
+        <v>436</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>399</v>
+        <v>437</v>
       </c>
       <c r="D165" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E165" t="s">
         <v>9</v>
+      </c>
+      <c r="F165" s="4">
+        <v>4.6888888888888891</v>
       </c>
       <c r="G165" s="6">
         <v>20175</v>
@@ -6701,22 +6683,22 @@
     </row>
     <row r="166" spans="1:7">
       <c r="A166" t="s">
-        <v>400</v>
+        <v>56</v>
       </c>
       <c r="B166" t="s">
-        <v>401</v>
+        <v>438</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>402</v>
+        <v>439</v>
       </c>
       <c r="D166" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E166" t="s">
         <v>9</v>
       </c>
       <c r="F166" s="4">
-        <v>3.666666666666667</v>
+        <v>5</v>
       </c>
       <c r="G166" s="6">
         <v>20175</v>
@@ -6724,13 +6706,13 @@
     </row>
     <row r="167" spans="1:7">
       <c r="A167" t="s">
-        <v>403</v>
+        <v>45</v>
       </c>
       <c r="B167" t="s">
-        <v>404</v>
+        <v>440</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>405</v>
+        <v>441</v>
       </c>
       <c r="D167" s="4">
         <v>1</v>
@@ -6739,7 +6721,7 @@
         <v>9</v>
       </c>
       <c r="F167" s="4">
-        <v>5</v>
+        <v>4.8266666666666671</v>
       </c>
       <c r="G167" s="6">
         <v>20175</v>
@@ -6747,13 +6729,13 @@
     </row>
     <row r="168" spans="1:7">
       <c r="A168" t="s">
-        <v>406</v>
+        <v>442</v>
       </c>
       <c r="B168" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>408</v>
+        <v>444</v>
       </c>
       <c r="D168" s="4">
         <v>2</v>
@@ -6762,7 +6744,7 @@
         <v>9</v>
       </c>
       <c r="F168" s="4">
-        <v>4.8717948717948714</v>
+        <v>5</v>
       </c>
       <c r="G168" s="6">
         <v>20175</v>
@@ -6770,13 +6752,13 @@
     </row>
     <row r="169" spans="1:7">
       <c r="A169" t="s">
-        <v>65</v>
+        <v>445</v>
       </c>
       <c r="B169" t="s">
-        <v>409</v>
+        <v>446</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>410</v>
+        <v>447</v>
       </c>
       <c r="D169" s="4">
         <v>1</v>
@@ -6785,7 +6767,7 @@
         <v>9</v>
       </c>
       <c r="F169" s="4">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="G169" s="6">
         <v>20175</v>
@@ -6793,13 +6775,13 @@
     </row>
     <row r="170" spans="1:7">
       <c r="A170" t="s">
-        <v>411</v>
+        <v>448</v>
       </c>
       <c r="B170" t="s">
-        <v>412</v>
+        <v>449</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>413</v>
+        <v>450</v>
       </c>
       <c r="D170" s="4">
         <v>1</v>
@@ -6808,7 +6790,7 @@
         <v>9</v>
       </c>
       <c r="F170" s="4">
-        <v>4.92</v>
+        <v>4.8275862068965516</v>
       </c>
       <c r="G170" s="6">
         <v>20175</v>
@@ -6816,13 +6798,13 @@
     </row>
     <row r="171" spans="1:7">
       <c r="A171" t="s">
-        <v>414</v>
+        <v>451</v>
       </c>
       <c r="B171" t="s">
-        <v>415</v>
+        <v>452</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>416</v>
+        <v>453</v>
       </c>
       <c r="D171" s="4">
         <v>1</v>
@@ -6831,7 +6813,7 @@
         <v>9</v>
       </c>
       <c r="F171" s="4">
-        <v>4.333333333333333</v>
+        <v>4.8674698795180724</v>
       </c>
       <c r="G171" s="6">
         <v>20175</v>
@@ -6839,22 +6821,19 @@
     </row>
     <row r="172" spans="1:7">
       <c r="A172" t="s">
-        <v>417</v>
+        <v>454</v>
       </c>
       <c r="B172" t="s">
-        <v>418</v>
+        <v>455</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>419</v>
+        <v>456</v>
       </c>
       <c r="D172" s="4">
         <v>1</v>
       </c>
       <c r="E172" t="s">
         <v>9</v>
-      </c>
-      <c r="F172" s="4">
-        <v>4.8560606060606064</v>
       </c>
       <c r="G172" s="6">
         <v>20175</v>
@@ -6862,13 +6841,13 @@
     </row>
     <row r="173" spans="1:7">
       <c r="A173" t="s">
-        <v>420</v>
+        <v>457</v>
       </c>
       <c r="B173" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>422</v>
+        <v>458</v>
       </c>
       <c r="D173" s="4">
         <v>2</v>
@@ -6877,7 +6856,7 @@
         <v>9</v>
       </c>
       <c r="F173" s="4">
-        <v>4.958333333333333</v>
+        <v>3</v>
       </c>
       <c r="G173" s="6">
         <v>20175</v>
@@ -6885,22 +6864,22 @@
     </row>
     <row r="174" spans="1:7">
       <c r="A174" t="s">
-        <v>423</v>
+        <v>459</v>
       </c>
       <c r="B174" t="s">
-        <v>424</v>
+        <v>460</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>425</v>
+        <v>461</v>
       </c>
       <c r="D174" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E174" t="s">
         <v>9</v>
       </c>
       <c r="F174" s="4">
-        <v>5</v>
+        <v>4.6756756756756754</v>
       </c>
       <c r="G174" s="6">
         <v>20175</v>
@@ -6908,22 +6887,19 @@
     </row>
     <row r="175" spans="1:7">
       <c r="A175" t="s">
-        <v>110</v>
+        <v>372</v>
       </c>
       <c r="B175" t="s">
-        <v>303</v>
+        <v>462</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>426</v>
+        <v>463</v>
       </c>
       <c r="D175" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E175" t="s">
         <v>9</v>
-      </c>
-      <c r="F175" s="4">
-        <v>3.166666666666667</v>
       </c>
       <c r="G175" s="6">
         <v>20175</v>
@@ -6931,13 +6907,13 @@
     </row>
     <row r="176" spans="1:7">
       <c r="A176" t="s">
-        <v>427</v>
+        <v>56</v>
       </c>
       <c r="B176" t="s">
-        <v>428</v>
+        <v>464</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>429</v>
+        <v>465</v>
       </c>
       <c r="D176" s="4">
         <v>2</v>
@@ -6946,7 +6922,7 @@
         <v>9</v>
       </c>
       <c r="F176" s="4">
-        <v>5</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="G176" s="6">
         <v>20175</v>
@@ -6954,22 +6930,22 @@
     </row>
     <row r="177" spans="1:7">
       <c r="A177" t="s">
-        <v>430</v>
+        <v>56</v>
       </c>
       <c r="B177" t="s">
-        <v>431</v>
+        <v>466</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>432</v>
+        <v>467</v>
       </c>
       <c r="D177" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E177" t="s">
         <v>9</v>
       </c>
       <c r="F177" s="4">
-        <v>4.6557377049180326</v>
+        <v>5</v>
       </c>
       <c r="G177" s="6">
         <v>20175</v>
@@ -6977,19 +6953,22 @@
     </row>
     <row r="178" spans="1:7">
       <c r="A178" t="s">
-        <v>433</v>
+        <v>56</v>
       </c>
       <c r="B178" t="s">
-        <v>434</v>
+        <v>468</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>435</v>
+        <v>469</v>
       </c>
       <c r="D178" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E178" t="s">
         <v>9</v>
+      </c>
+      <c r="F178" s="4">
+        <v>4.7021276595744679</v>
       </c>
       <c r="G178" s="6">
         <v>20175</v>
@@ -6997,22 +6976,22 @@
     </row>
     <row r="179" spans="1:7">
       <c r="A179" t="s">
-        <v>65</v>
+        <v>417</v>
       </c>
       <c r="B179" t="s">
-        <v>436</v>
+        <v>470</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>437</v>
+        <v>471</v>
       </c>
       <c r="D179" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E179" t="s">
         <v>9</v>
       </c>
       <c r="F179" s="4">
-        <v>4.333333333333333</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="G179" s="6">
         <v>20175</v>
@@ -7020,19 +6999,22 @@
     </row>
     <row r="180" spans="1:7">
       <c r="A180" t="s">
-        <v>438</v>
+        <v>80</v>
       </c>
       <c r="B180" t="s">
-        <v>439</v>
+        <v>472</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>440</v>
+        <v>473</v>
       </c>
       <c r="D180" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E180" t="s">
         <v>9</v>
+      </c>
+      <c r="F180" s="4">
+        <v>5</v>
       </c>
       <c r="G180" s="6">
         <v>20175</v>
@@ -7040,22 +7022,22 @@
     </row>
     <row r="181" spans="1:7">
       <c r="A181" t="s">
-        <v>441</v>
+        <v>474</v>
       </c>
       <c r="B181" t="s">
-        <v>442</v>
+        <v>475</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>443</v>
+        <v>476</v>
       </c>
       <c r="D181" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E181" t="s">
         <v>9</v>
       </c>
       <c r="F181" s="4">
-        <v>4.6888888888888891</v>
+        <v>4.7640449438202248</v>
       </c>
       <c r="G181" s="6">
         <v>20175</v>
@@ -7063,13 +7045,13 @@
     </row>
     <row r="182" spans="1:7">
       <c r="A182" t="s">
-        <v>56</v>
+        <v>219</v>
       </c>
       <c r="B182" t="s">
-        <v>444</v>
+        <v>477</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>445</v>
+        <v>478</v>
       </c>
       <c r="D182" s="4">
         <v>2</v>
@@ -7078,7 +7060,7 @@
         <v>9</v>
       </c>
       <c r="F182" s="4">
-        <v>5</v>
+        <v>4.9864864864864868</v>
       </c>
       <c r="G182" s="6">
         <v>20175</v>
@@ -7086,22 +7068,22 @@
     </row>
     <row r="183" spans="1:7">
       <c r="A183" t="s">
-        <v>45</v>
+        <v>479</v>
       </c>
       <c r="B183" t="s">
-        <v>446</v>
+        <v>480</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>447</v>
+        <v>481</v>
       </c>
       <c r="D183" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E183" t="s">
         <v>9</v>
       </c>
       <c r="F183" s="4">
-        <v>4.8266666666666671</v>
+        <v>4.9411764705882364</v>
       </c>
       <c r="G183" s="6">
         <v>20175</v>
@@ -7109,16 +7091,16 @@
     </row>
     <row r="184" spans="1:7">
       <c r="A184" t="s">
-        <v>448</v>
+        <v>482</v>
       </c>
       <c r="B184" t="s">
-        <v>449</v>
+        <v>483</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>450</v>
+        <v>484</v>
       </c>
       <c r="D184" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E184" t="s">
         <v>9</v>
@@ -7132,22 +7114,22 @@
     </row>
     <row r="185" spans="1:7">
       <c r="A185" t="s">
-        <v>451</v>
+        <v>108</v>
       </c>
       <c r="B185" t="s">
-        <v>452</v>
+        <v>220</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>453</v>
+        <v>485</v>
       </c>
       <c r="D185" s="4">
         <v>1</v>
       </c>
       <c r="E185" t="s">
-        <v>9</v>
+        <v>486</v>
       </c>
       <c r="F185" s="4">
-        <v>5</v>
+        <v>4.8666666666666663</v>
       </c>
       <c r="G185" s="6">
         <v>20175</v>
@@ -7155,22 +7137,22 @@
     </row>
     <row r="186" spans="1:7">
       <c r="A186" t="s">
-        <v>454</v>
+        <v>487</v>
       </c>
       <c r="B186" t="s">
-        <v>455</v>
+        <v>63</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>456</v>
+        <v>488</v>
       </c>
       <c r="D186" s="4">
         <v>1</v>
       </c>
       <c r="E186" t="s">
-        <v>9</v>
+        <v>486</v>
       </c>
       <c r="F186" s="4">
-        <v>4.8275862068965516</v>
+        <v>5</v>
       </c>
       <c r="G186" s="6">
         <v>20175</v>
@@ -7178,22 +7160,19 @@
     </row>
     <row r="187" spans="1:7">
       <c r="A187" t="s">
-        <v>457</v>
+        <v>489</v>
       </c>
       <c r="B187" t="s">
-        <v>458</v>
+        <v>490</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>459</v>
+        <v>491</v>
       </c>
       <c r="D187" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E187" t="s">
-        <v>9</v>
-      </c>
-      <c r="F187" s="4">
-        <v>4.8674698795180724</v>
+        <v>486</v>
       </c>
       <c r="G187" s="6">
         <v>20175</v>
@@ -7201,19 +7180,22 @@
     </row>
     <row r="188" spans="1:7">
       <c r="A188" t="s">
-        <v>460</v>
+        <v>445</v>
       </c>
       <c r="B188" t="s">
-        <v>461</v>
+        <v>492</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>462</v>
+        <v>493</v>
       </c>
       <c r="D188" s="4">
         <v>1</v>
       </c>
       <c r="E188" t="s">
-        <v>9</v>
+        <v>486</v>
+      </c>
+      <c r="F188" s="4">
+        <v>1</v>
       </c>
       <c r="G188" s="6">
         <v>20175</v>
@@ -7221,22 +7203,19 @@
     </row>
     <row r="189" spans="1:7">
       <c r="A189" t="s">
-        <v>463</v>
+        <v>494</v>
       </c>
       <c r="B189" t="s">
-        <v>424</v>
+        <v>495</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>464</v>
+        <v>496</v>
       </c>
       <c r="D189" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E189" t="s">
-        <v>9</v>
-      </c>
-      <c r="F189" s="4">
-        <v>3</v>
+        <v>486</v>
       </c>
       <c r="G189" s="6">
         <v>20175</v>
@@ -7244,22 +7223,19 @@
     </row>
     <row r="190" spans="1:7">
       <c r="A190" t="s">
-        <v>465</v>
+        <v>497</v>
       </c>
       <c r="B190" t="s">
-        <v>466</v>
+        <v>498</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>467</v>
+        <v>499</v>
       </c>
       <c r="D190" s="4">
         <v>1</v>
       </c>
       <c r="E190" t="s">
-        <v>9</v>
-      </c>
-      <c r="F190" s="4">
-        <v>4.6756756756756754</v>
+        <v>486</v>
       </c>
       <c r="G190" s="6">
         <v>20175</v>
@@ -7267,19 +7243,19 @@
     </row>
     <row r="191" spans="1:7">
       <c r="A191" t="s">
-        <v>377</v>
+        <v>500</v>
       </c>
       <c r="B191" t="s">
-        <v>468</v>
+        <v>501</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>469</v>
+        <v>502</v>
       </c>
       <c r="D191" s="4">
         <v>2</v>
       </c>
       <c r="E191" t="s">
-        <v>9</v>
+        <v>486</v>
       </c>
       <c r="G191" s="6">
         <v>20175</v>
@@ -7287,22 +7263,22 @@
     </row>
     <row r="192" spans="1:7">
       <c r="A192" t="s">
-        <v>56</v>
+        <v>503</v>
       </c>
       <c r="B192" t="s">
-        <v>470</v>
+        <v>504</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>471</v>
+        <v>505</v>
       </c>
       <c r="D192" s="4">
         <v>2</v>
       </c>
       <c r="E192" t="s">
-        <v>9</v>
+        <v>486</v>
       </c>
       <c r="F192" s="4">
-        <v>4.9000000000000004</v>
+        <v>5</v>
       </c>
       <c r="G192" s="6">
         <v>20175</v>
@@ -7310,22 +7286,19 @@
     </row>
     <row r="193" spans="1:7">
       <c r="A193" t="s">
-        <v>56</v>
+        <v>506</v>
       </c>
       <c r="B193" t="s">
-        <v>472</v>
+        <v>507</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>473</v>
+        <v>508</v>
       </c>
       <c r="D193" s="4">
         <v>2</v>
       </c>
       <c r="E193" t="s">
-        <v>9</v>
-      </c>
-      <c r="F193" s="4">
-        <v>5</v>
+        <v>486</v>
       </c>
       <c r="G193" s="6">
         <v>20175</v>
@@ -7333,22 +7306,19 @@
     </row>
     <row r="194" spans="1:7">
       <c r="A194" t="s">
-        <v>56</v>
+        <v>108</v>
       </c>
       <c r="B194" t="s">
-        <v>474</v>
+        <v>509</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>475</v>
+        <v>510</v>
       </c>
       <c r="D194" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E194" t="s">
-        <v>9</v>
-      </c>
-      <c r="F194" s="4">
-        <v>4.7021276595744679</v>
+        <v>486</v>
       </c>
       <c r="G194" s="6">
         <v>20175</v>
@@ -7356,22 +7326,19 @@
     </row>
     <row r="195" spans="1:7">
       <c r="A195" t="s">
-        <v>423</v>
+        <v>511</v>
       </c>
       <c r="B195" t="s">
-        <v>476</v>
+        <v>512</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>477</v>
+        <v>513</v>
       </c>
       <c r="D195" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E195" t="s">
-        <v>9</v>
-      </c>
-      <c r="F195" s="4">
-        <v>4.5999999999999996</v>
+        <v>486</v>
       </c>
       <c r="G195" s="6">
         <v>20175</v>
@@ -7379,19 +7346,19 @@
     </row>
     <row r="196" spans="1:7">
       <c r="A196" t="s">
-        <v>80</v>
+        <v>515</v>
       </c>
       <c r="B196" t="s">
-        <v>478</v>
+        <v>234</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>479</v>
+        <v>516</v>
       </c>
       <c r="D196" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E196" t="s">
-        <v>9</v>
+        <v>486</v>
       </c>
       <c r="F196" s="4">
         <v>5</v>
@@ -7402,22 +7369,19 @@
     </row>
     <row r="197" spans="1:7">
       <c r="A197" t="s">
-        <v>480</v>
+        <v>517</v>
       </c>
       <c r="B197" t="s">
-        <v>481</v>
+        <v>518</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>482</v>
+        <v>519</v>
       </c>
       <c r="D197" s="4">
         <v>1</v>
       </c>
       <c r="E197" t="s">
-        <v>9</v>
-      </c>
-      <c r="F197" s="4">
-        <v>4.7640449438202248</v>
+        <v>486</v>
       </c>
       <c r="G197" s="6">
         <v>20175</v>
@@ -7425,22 +7389,19 @@
     </row>
     <row r="198" spans="1:7">
       <c r="A198" t="s">
-        <v>222</v>
+        <v>520</v>
       </c>
       <c r="B198" t="s">
-        <v>483</v>
+        <v>521</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>484</v>
+        <v>522</v>
       </c>
       <c r="D198" s="4">
         <v>2</v>
       </c>
       <c r="E198" t="s">
-        <v>9</v>
-      </c>
-      <c r="F198" s="4">
-        <v>4.9864864864864868</v>
+        <v>486</v>
       </c>
       <c r="G198" s="6">
         <v>20175</v>
@@ -7448,22 +7409,19 @@
     </row>
     <row r="199" spans="1:7">
       <c r="A199" t="s">
-        <v>485</v>
+        <v>523</v>
       </c>
       <c r="B199" t="s">
+        <v>524</v>
+      </c>
+      <c r="C199" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="D199" s="4">
+        <v>2</v>
+      </c>
+      <c r="E199" t="s">
         <v>486</v>
-      </c>
-      <c r="C199" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="D199" s="4">
-        <v>2</v>
-      </c>
-      <c r="E199" t="s">
-        <v>9</v>
-      </c>
-      <c r="F199" s="4">
-        <v>4.9411764705882364</v>
       </c>
       <c r="G199" s="6">
         <v>20175</v>
@@ -7471,19 +7429,19 @@
     </row>
     <row r="200" spans="1:7">
       <c r="A200" t="s">
-        <v>488</v>
+        <v>150</v>
       </c>
       <c r="B200" t="s">
-        <v>489</v>
+        <v>526</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>490</v>
+        <v>527</v>
       </c>
       <c r="D200" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E200" t="s">
-        <v>9</v>
+        <v>486</v>
       </c>
       <c r="F200" s="4">
         <v>5</v>
@@ -7494,22 +7452,22 @@
     </row>
     <row r="201" spans="1:7">
       <c r="A201" t="s">
-        <v>110</v>
+        <v>45</v>
       </c>
       <c r="B201" t="s">
-        <v>223</v>
+        <v>528</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>491</v>
+        <v>529</v>
       </c>
       <c r="D201" s="4">
         <v>1</v>
       </c>
       <c r="E201" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="F201" s="4">
-        <v>4.8666666666666663</v>
+        <v>5</v>
       </c>
       <c r="G201" s="6">
         <v>20175</v>
@@ -7517,22 +7475,19 @@
     </row>
     <row r="202" spans="1:7">
       <c r="A202" t="s">
-        <v>493</v>
+        <v>530</v>
       </c>
       <c r="B202" t="s">
-        <v>63</v>
+        <v>531</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>494</v>
+        <v>532</v>
       </c>
       <c r="D202" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E202" t="s">
-        <v>492</v>
-      </c>
-      <c r="F202" s="4">
-        <v>5</v>
+        <v>486</v>
       </c>
       <c r="G202" s="6">
         <v>20175</v>
@@ -7540,19 +7495,19 @@
     </row>
     <row r="203" spans="1:7">
       <c r="A203" t="s">
-        <v>495</v>
+        <v>295</v>
       </c>
       <c r="B203" t="s">
-        <v>496</v>
+        <v>533</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>497</v>
+        <v>534</v>
       </c>
       <c r="D203" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E203" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="G203" s="6">
         <v>20175</v>
@@ -7560,22 +7515,19 @@
     </row>
     <row r="204" spans="1:7">
       <c r="A204" t="s">
-        <v>451</v>
+        <v>535</v>
       </c>
       <c r="B204" t="s">
-        <v>498</v>
+        <v>536</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>499</v>
+        <v>537</v>
       </c>
       <c r="D204" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E204" t="s">
-        <v>492</v>
-      </c>
-      <c r="F204" s="4">
-        <v>1</v>
+        <v>486</v>
       </c>
       <c r="G204" s="6">
         <v>20175</v>
@@ -7583,19 +7535,22 @@
     </row>
     <row r="205" spans="1:7">
       <c r="A205" t="s">
-        <v>500</v>
+        <v>48</v>
       </c>
       <c r="B205" t="s">
-        <v>501</v>
+        <v>538</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>502</v>
+        <v>539</v>
       </c>
       <c r="D205" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E205" t="s">
-        <v>492</v>
+        <v>486</v>
+      </c>
+      <c r="F205" s="4">
+        <v>5</v>
       </c>
       <c r="G205" s="6">
         <v>20175</v>
@@ -7603,19 +7558,22 @@
     </row>
     <row r="206" spans="1:7">
       <c r="A206" t="s">
-        <v>503</v>
+        <v>540</v>
       </c>
       <c r="B206" t="s">
-        <v>504</v>
+        <v>541</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>505</v>
+        <v>542</v>
       </c>
       <c r="D206" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E206" t="s">
-        <v>492</v>
+        <v>486</v>
+      </c>
+      <c r="F206" s="4">
+        <v>5</v>
       </c>
       <c r="G206" s="6">
         <v>20175</v>
@@ -7623,19 +7581,19 @@
     </row>
     <row r="207" spans="1:7">
       <c r="A207" t="s">
-        <v>506</v>
+        <v>10</v>
       </c>
       <c r="B207" t="s">
-        <v>507</v>
+        <v>543</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>508</v>
+        <v>544</v>
       </c>
       <c r="D207" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E207" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="G207" s="6">
         <v>20175</v>
@@ -7643,19 +7601,19 @@
     </row>
     <row r="208" spans="1:7">
       <c r="A208" t="s">
-        <v>509</v>
+        <v>311</v>
       </c>
       <c r="B208" t="s">
-        <v>510</v>
+        <v>545</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>511</v>
+        <v>546</v>
       </c>
       <c r="D208" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E208" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="F208" s="4">
         <v>5</v>
@@ -7666,19 +7624,22 @@
     </row>
     <row r="209" spans="1:7">
       <c r="A209" t="s">
-        <v>512</v>
+        <v>547</v>
       </c>
       <c r="B209" t="s">
-        <v>513</v>
+        <v>548</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>514</v>
+        <v>549</v>
       </c>
       <c r="D209" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E209" t="s">
-        <v>492</v>
+        <v>486</v>
+      </c>
+      <c r="F209" s="4">
+        <v>5</v>
       </c>
       <c r="G209" s="6">
         <v>20175</v>
@@ -7686,19 +7647,22 @@
     </row>
     <row r="210" spans="1:7">
       <c r="A210" t="s">
-        <v>110</v>
+        <v>31</v>
       </c>
       <c r="B210" t="s">
-        <v>515</v>
+        <v>550</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>516</v>
+        <v>551</v>
       </c>
       <c r="D210" s="4">
         <v>1</v>
       </c>
       <c r="E210" t="s">
-        <v>492</v>
+        <v>486</v>
+      </c>
+      <c r="F210" s="4">
+        <v>5</v>
       </c>
       <c r="G210" s="6">
         <v>20175</v>
@@ -7706,19 +7670,19 @@
     </row>
     <row r="211" spans="1:7">
       <c r="A211" t="s">
-        <v>517</v>
+        <v>281</v>
       </c>
       <c r="B211" t="s">
-        <v>518</v>
+        <v>552</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>519</v>
+        <v>553</v>
       </c>
       <c r="D211" s="4">
         <v>1</v>
       </c>
       <c r="E211" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="G211" s="6">
         <v>20175</v>
@@ -7726,19 +7690,19 @@
     </row>
     <row r="212" spans="1:7">
       <c r="A212" t="s">
-        <v>228</v>
+        <v>554</v>
       </c>
       <c r="B212" t="s">
-        <v>520</v>
+        <v>555</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>521</v>
+        <v>556</v>
       </c>
       <c r="D212" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E212" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="G212" s="6">
         <v>20175</v>
@@ -7746,19 +7710,19 @@
     </row>
     <row r="213" spans="1:7">
       <c r="A213" t="s">
-        <v>522</v>
+        <v>131</v>
       </c>
       <c r="B213" t="s">
-        <v>237</v>
+        <v>557</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>523</v>
+        <v>558</v>
       </c>
       <c r="D213" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E213" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="F213" s="4">
         <v>5</v>
@@ -7769,19 +7733,22 @@
     </row>
     <row r="214" spans="1:7">
       <c r="A214" t="s">
-        <v>524</v>
+        <v>559</v>
       </c>
       <c r="B214" t="s">
-        <v>525</v>
+        <v>560</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="D214" s="4">
         <v>1</v>
       </c>
       <c r="E214" t="s">
-        <v>492</v>
+        <v>486</v>
+      </c>
+      <c r="F214" s="4">
+        <v>5</v>
       </c>
       <c r="G214" s="6">
         <v>20175</v>
@@ -7789,19 +7756,22 @@
     </row>
     <row r="215" spans="1:7">
       <c r="A215" t="s">
-        <v>527</v>
+        <v>225</v>
       </c>
       <c r="B215" t="s">
-        <v>528</v>
+        <v>562</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>529</v>
+        <v>514</v>
       </c>
       <c r="D215" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E215" t="s">
-        <v>492</v>
+        <v>486</v>
+      </c>
+      <c r="F215" s="4">
+        <v>4.8543689320388346</v>
       </c>
       <c r="G215" s="6">
         <v>20175</v>
@@ -7809,19 +7779,22 @@
     </row>
     <row r="216" spans="1:7">
       <c r="A216" t="s">
-        <v>530</v>
+        <v>563</v>
       </c>
       <c r="B216" t="s">
-        <v>531</v>
+        <v>564</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>532</v>
+        <v>565</v>
       </c>
       <c r="D216" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E216" t="s">
-        <v>492</v>
+        <v>486</v>
+      </c>
+      <c r="F216" s="4">
+        <v>5</v>
       </c>
       <c r="G216" s="6">
         <v>20175</v>
@@ -7829,22 +7802,22 @@
     </row>
     <row r="217" spans="1:7">
       <c r="A217" t="s">
-        <v>152</v>
+        <v>108</v>
       </c>
       <c r="B217" t="s">
-        <v>533</v>
+        <v>566</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>534</v>
+        <v>567</v>
       </c>
       <c r="D217" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E217" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="F217" s="4">
-        <v>5</v>
+        <v>4.8378378378378377</v>
       </c>
       <c r="G217" s="6">
         <v>20175</v>
@@ -7852,19 +7825,19 @@
     </row>
     <row r="218" spans="1:7">
       <c r="A218" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B218" t="s">
-        <v>535</v>
+        <v>568</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>536</v>
+        <v>569</v>
       </c>
       <c r="D218" s="4">
         <v>1</v>
       </c>
       <c r="E218" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="F218" s="4">
         <v>5</v>
@@ -7875,19 +7848,19 @@
     </row>
     <row r="219" spans="1:7">
       <c r="A219" t="s">
-        <v>537</v>
+        <v>337</v>
       </c>
       <c r="B219" t="s">
-        <v>538</v>
+        <v>570</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>539</v>
+        <v>571</v>
       </c>
       <c r="D219" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E219" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="G219" s="6">
         <v>20175</v>
@@ -7895,19 +7868,22 @@
     </row>
     <row r="220" spans="1:7">
       <c r="A220" t="s">
-        <v>299</v>
+        <v>51</v>
       </c>
       <c r="B220" t="s">
-        <v>540</v>
+        <v>572</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>541</v>
+        <v>573</v>
       </c>
       <c r="D220" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E220" t="s">
-        <v>492</v>
+        <v>486</v>
+      </c>
+      <c r="F220" s="4">
+        <v>5</v>
       </c>
       <c r="G220" s="6">
         <v>20175</v>
@@ -7915,19 +7891,22 @@
     </row>
     <row r="221" spans="1:7">
       <c r="A221" t="s">
-        <v>542</v>
+        <v>574</v>
       </c>
       <c r="B221" t="s">
-        <v>543</v>
+        <v>575</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>544</v>
+        <v>576</v>
       </c>
       <c r="D221" s="4">
         <v>2</v>
       </c>
       <c r="E221" t="s">
-        <v>492</v>
+        <v>486</v>
+      </c>
+      <c r="F221" s="4">
+        <v>4.4736842105263159</v>
       </c>
       <c r="G221" s="6">
         <v>20175</v>
@@ -7935,19 +7914,19 @@
     </row>
     <row r="222" spans="1:7">
       <c r="A222" t="s">
-        <v>48</v>
+        <v>577</v>
       </c>
       <c r="B222" t="s">
-        <v>545</v>
+        <v>578</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>546</v>
+        <v>579</v>
       </c>
       <c r="D222" s="4">
         <v>2</v>
       </c>
       <c r="E222" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="F222" s="4">
         <v>5</v>
@@ -7958,22 +7937,22 @@
     </row>
     <row r="223" spans="1:7">
       <c r="A223" t="s">
-        <v>547</v>
+        <v>580</v>
       </c>
       <c r="B223" t="s">
-        <v>548</v>
+        <v>581</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>549</v>
+        <v>582</v>
       </c>
       <c r="D223" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E223" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="F223" s="4">
-        <v>5</v>
+        <v>4.7857142857142856</v>
       </c>
       <c r="G223" s="6">
         <v>20175</v>
@@ -7981,19 +7960,22 @@
     </row>
     <row r="224" spans="1:7">
       <c r="A224" t="s">
-        <v>10</v>
+        <v>417</v>
       </c>
       <c r="B224" t="s">
-        <v>550</v>
-      </c>
-      <c r="C224" s="4" t="s">
-        <v>551</v>
+        <v>17</v>
+      </c>
+      <c r="C224" s="4">
+        <v>96673</v>
       </c>
       <c r="D224" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E224" t="s">
-        <v>492</v>
+        <v>486</v>
+      </c>
+      <c r="F224" s="4">
+        <v>2.5</v>
       </c>
       <c r="G224" s="6">
         <v>20175</v>
@@ -8001,19 +7983,19 @@
     </row>
     <row r="225" spans="1:7">
       <c r="A225" t="s">
-        <v>51</v>
+        <v>583</v>
       </c>
       <c r="B225" t="s">
-        <v>52</v>
+        <v>584</v>
       </c>
       <c r="C225" s="4" t="s">
-        <v>552</v>
+        <v>585</v>
       </c>
       <c r="D225" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E225" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="G225" s="6">
         <v>20175</v>
@@ -8021,19 +8003,19 @@
     </row>
     <row r="226" spans="1:7">
       <c r="A226" t="s">
-        <v>315</v>
+        <v>65</v>
       </c>
       <c r="B226" t="s">
-        <v>553</v>
+        <v>586</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>554</v>
+        <v>587</v>
       </c>
       <c r="D226" s="4">
         <v>1</v>
       </c>
       <c r="E226" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="F226" s="4">
         <v>5</v>
@@ -8044,22 +8026,22 @@
     </row>
     <row r="227" spans="1:7">
       <c r="A227" t="s">
-        <v>555</v>
+        <v>451</v>
       </c>
       <c r="B227" t="s">
-        <v>556</v>
+        <v>588</v>
       </c>
       <c r="C227" s="4" t="s">
-        <v>514</v>
+        <v>589</v>
       </c>
       <c r="D227" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E227" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="F227" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G227" s="6">
         <v>20175</v>
@@ -8067,22 +8049,19 @@
     </row>
     <row r="228" spans="1:7">
       <c r="A228" t="s">
-        <v>557</v>
+        <v>10</v>
       </c>
       <c r="B228" t="s">
-        <v>558</v>
+        <v>590</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>559</v>
+        <v>591</v>
       </c>
       <c r="D228" s="4">
         <v>1</v>
       </c>
       <c r="E228" t="s">
-        <v>492</v>
-      </c>
-      <c r="F228" s="4">
-        <v>5</v>
+        <v>486</v>
       </c>
       <c r="G228" s="6">
         <v>20175</v>
@@ -8090,441 +8069,429 @@
     </row>
     <row r="229" spans="1:7">
       <c r="A229" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="B229" t="s">
-        <v>560</v>
+        <v>592</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>561</v>
+        <v>593</v>
       </c>
       <c r="D229" s="4">
         <v>1</v>
       </c>
       <c r="E229" t="s">
-        <v>492</v>
-      </c>
-      <c r="F229" s="4">
-        <v>5</v>
+        <v>594</v>
       </c>
       <c r="G229" s="6">
-        <v>20175</v>
+        <v>201264</v>
       </c>
     </row>
     <row r="230" spans="1:7">
       <c r="A230" t="s">
-        <v>285</v>
+        <v>595</v>
       </c>
       <c r="B230" t="s">
-        <v>562</v>
+        <v>596</v>
       </c>
       <c r="C230" s="4" t="s">
-        <v>563</v>
+        <v>597</v>
       </c>
       <c r="D230" s="4">
         <v>1</v>
       </c>
       <c r="E230" t="s">
-        <v>492</v>
+        <v>594</v>
       </c>
       <c r="G230" s="6">
-        <v>20175</v>
+        <v>201264</v>
       </c>
     </row>
     <row r="231" spans="1:7">
       <c r="A231" t="s">
-        <v>564</v>
+        <v>19</v>
       </c>
       <c r="B231" t="s">
-        <v>565</v>
+        <v>598</v>
       </c>
       <c r="C231" s="4" t="s">
-        <v>566</v>
+        <v>599</v>
       </c>
       <c r="D231" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E231" t="s">
-        <v>492</v>
+        <v>594</v>
+      </c>
+      <c r="F231" s="4">
+        <v>4.8148148148148149</v>
       </c>
       <c r="G231" s="6">
-        <v>20175</v>
+        <v>201264</v>
       </c>
     </row>
     <row r="232" spans="1:7">
       <c r="A232" t="s">
-        <v>133</v>
+        <v>600</v>
       </c>
       <c r="B232" t="s">
-        <v>567</v>
+        <v>601</v>
       </c>
       <c r="C232" s="4" t="s">
-        <v>568</v>
+        <v>602</v>
       </c>
       <c r="D232" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E232" t="s">
-        <v>492</v>
+        <v>594</v>
       </c>
       <c r="F232" s="4">
-        <v>5</v>
+        <v>4.9705882352941178</v>
       </c>
       <c r="G232" s="6">
-        <v>20175</v>
+        <v>201264</v>
       </c>
     </row>
     <row r="233" spans="1:7">
       <c r="A233" t="s">
-        <v>569</v>
+        <v>6</v>
       </c>
       <c r="B233" t="s">
-        <v>570</v>
+        <v>603</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>571</v>
+        <v>604</v>
       </c>
       <c r="D233" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E233" t="s">
-        <v>492</v>
+        <v>594</v>
       </c>
       <c r="F233" s="4">
         <v>5</v>
       </c>
       <c r="G233" s="6">
-        <v>20175</v>
+        <v>201264</v>
       </c>
     </row>
     <row r="234" spans="1:7">
       <c r="A234" t="s">
-        <v>228</v>
+        <v>56</v>
       </c>
       <c r="B234" t="s">
-        <v>572</v>
+        <v>605</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>521</v>
+        <v>606</v>
       </c>
       <c r="D234" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E234" t="s">
-        <v>492</v>
-      </c>
-      <c r="F234" s="4">
-        <v>4.8543689320388346</v>
+        <v>594</v>
       </c>
       <c r="G234" s="6">
-        <v>20175</v>
+        <v>201264</v>
       </c>
     </row>
     <row r="235" spans="1:7">
       <c r="A235" t="s">
-        <v>573</v>
+        <v>607</v>
       </c>
       <c r="B235" t="s">
-        <v>574</v>
+        <v>608</v>
       </c>
       <c r="C235" s="4" t="s">
-        <v>575</v>
+        <v>609</v>
       </c>
       <c r="D235" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E235" t="s">
-        <v>492</v>
+        <v>594</v>
       </c>
       <c r="F235" s="4">
         <v>5</v>
       </c>
       <c r="G235" s="6">
-        <v>20175</v>
+        <v>201264</v>
       </c>
     </row>
     <row r="236" spans="1:7">
       <c r="A236" t="s">
-        <v>110</v>
+        <v>238</v>
       </c>
       <c r="B236" t="s">
-        <v>576</v>
+        <v>610</v>
       </c>
       <c r="C236" s="4" t="s">
-        <v>577</v>
+        <v>611</v>
       </c>
       <c r="D236" s="4">
         <v>1</v>
       </c>
       <c r="E236" t="s">
-        <v>492</v>
+        <v>594</v>
       </c>
       <c r="F236" s="4">
-        <v>4.8378378378378377</v>
+        <v>5</v>
       </c>
       <c r="G236" s="6">
-        <v>20175</v>
+        <v>201264</v>
       </c>
     </row>
     <row r="237" spans="1:7">
       <c r="A237" t="s">
-        <v>51</v>
+        <v>612</v>
       </c>
       <c r="B237" t="s">
-        <v>578</v>
+        <v>613</v>
       </c>
       <c r="C237" s="4" t="s">
-        <v>579</v>
+        <v>614</v>
       </c>
       <c r="D237" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E237" t="s">
-        <v>492</v>
-      </c>
-      <c r="F237" s="4">
-        <v>5</v>
+        <v>594</v>
       </c>
       <c r="G237" s="6">
-        <v>20175</v>
+        <v>201264</v>
       </c>
     </row>
     <row r="238" spans="1:7">
       <c r="A238" t="s">
-        <v>341</v>
+        <v>176</v>
       </c>
       <c r="B238" t="s">
-        <v>580</v>
+        <v>615</v>
       </c>
       <c r="C238" s="4" t="s">
-        <v>581</v>
+        <v>616</v>
       </c>
       <c r="D238" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E238" t="s">
-        <v>492</v>
+        <v>594</v>
       </c>
       <c r="G238" s="6">
-        <v>20175</v>
+        <v>201264</v>
       </c>
     </row>
     <row r="239" spans="1:7">
       <c r="A239" t="s">
-        <v>51</v>
+        <v>617</v>
       </c>
       <c r="B239" t="s">
-        <v>582</v>
+        <v>618</v>
       </c>
       <c r="C239" s="4" t="s">
-        <v>583</v>
+        <v>619</v>
       </c>
       <c r="D239" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E239" t="s">
-        <v>492</v>
-      </c>
-      <c r="F239" s="4">
-        <v>5</v>
+        <v>594</v>
       </c>
       <c r="G239" s="6">
-        <v>20175</v>
+        <v>201264</v>
       </c>
     </row>
     <row r="240" spans="1:7">
       <c r="A240" t="s">
-        <v>584</v>
+        <v>150</v>
       </c>
       <c r="B240" t="s">
-        <v>585</v>
+        <v>620</v>
       </c>
       <c r="C240" s="4" t="s">
-        <v>586</v>
+        <v>621</v>
       </c>
       <c r="D240" s="4">
         <v>2</v>
       </c>
       <c r="E240" t="s">
-        <v>492</v>
+        <v>594</v>
       </c>
       <c r="F240" s="4">
-        <v>4.4736842105263159</v>
+        <v>5</v>
       </c>
       <c r="G240" s="6">
-        <v>20175</v>
+        <v>201264</v>
       </c>
     </row>
     <row r="241" spans="1:7">
       <c r="A241" t="s">
-        <v>587</v>
+        <v>424</v>
       </c>
       <c r="B241" t="s">
-        <v>588</v>
+        <v>622</v>
       </c>
       <c r="C241" s="4" t="s">
-        <v>589</v>
+        <v>623</v>
       </c>
       <c r="D241" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E241" t="s">
-        <v>492</v>
+        <v>594</v>
       </c>
       <c r="F241" s="4">
         <v>5</v>
       </c>
       <c r="G241" s="6">
-        <v>20175</v>
+        <v>201264</v>
       </c>
     </row>
     <row r="242" spans="1:7">
       <c r="A242" t="s">
-        <v>590</v>
+        <v>624</v>
       </c>
       <c r="B242" t="s">
-        <v>591</v>
+        <v>625</v>
       </c>
       <c r="C242" s="4" t="s">
-        <v>592</v>
+        <v>626</v>
       </c>
       <c r="D242" s="4">
         <v>1</v>
       </c>
       <c r="E242" t="s">
-        <v>492</v>
+        <v>594</v>
       </c>
       <c r="F242" s="4">
-        <v>4.7857142857142856</v>
+        <v>2.5</v>
       </c>
       <c r="G242" s="6">
-        <v>20175</v>
+        <v>201264</v>
       </c>
     </row>
     <row r="243" spans="1:7">
       <c r="A243" t="s">
-        <v>423</v>
+        <v>627</v>
       </c>
       <c r="B243" t="s">
-        <v>17</v>
-      </c>
-      <c r="C243" s="4">
-        <v>96673</v>
+        <v>628</v>
+      </c>
+      <c r="C243" s="4" t="s">
+        <v>629</v>
       </c>
       <c r="D243" s="4">
         <v>2</v>
       </c>
       <c r="E243" t="s">
-        <v>492</v>
-      </c>
-      <c r="F243" s="4">
-        <v>2.5</v>
+        <v>594</v>
       </c>
       <c r="G243" s="6">
-        <v>20175</v>
+        <v>201264</v>
       </c>
     </row>
     <row r="244" spans="1:7">
       <c r="A244" t="s">
-        <v>593</v>
+        <v>630</v>
       </c>
       <c r="B244" t="s">
+        <v>631</v>
+      </c>
+      <c r="C244" s="4" t="s">
+        <v>632</v>
+      </c>
+      <c r="D244" s="4">
+        <v>2</v>
+      </c>
+      <c r="E244" t="s">
         <v>594</v>
       </c>
-      <c r="C244" s="4" t="s">
-        <v>595</v>
-      </c>
-      <c r="D244" s="4">
-        <v>2</v>
-      </c>
-      <c r="E244" t="s">
-        <v>492</v>
-      </c>
       <c r="G244" s="6">
-        <v>20175</v>
+        <v>201264</v>
       </c>
     </row>
     <row r="245" spans="1:7">
       <c r="A245" t="s">
-        <v>65</v>
+        <v>165</v>
       </c>
       <c r="B245" t="s">
-        <v>596</v>
+        <v>633</v>
       </c>
       <c r="C245" s="4" t="s">
-        <v>597</v>
+        <v>634</v>
       </c>
       <c r="D245" s="4">
         <v>1</v>
       </c>
       <c r="E245" t="s">
-        <v>492</v>
+        <v>594</v>
       </c>
       <c r="F245" s="4">
         <v>5</v>
       </c>
       <c r="G245" s="6">
-        <v>20175</v>
+        <v>201264</v>
       </c>
     </row>
     <row r="246" spans="1:7">
       <c r="A246" t="s">
-        <v>457</v>
+        <v>635</v>
       </c>
       <c r="B246" t="s">
-        <v>598</v>
+        <v>7</v>
       </c>
       <c r="C246" s="4" t="s">
-        <v>599</v>
+        <v>636</v>
       </c>
       <c r="D246" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E246" t="s">
-        <v>492</v>
+        <v>594</v>
       </c>
       <c r="F246" s="4">
-        <v>1</v>
+        <v>4.935483870967742</v>
       </c>
       <c r="G246" s="6">
-        <v>20175</v>
+        <v>201264</v>
       </c>
     </row>
     <row r="247" spans="1:7">
       <c r="A247" t="s">
-        <v>10</v>
+        <v>637</v>
       </c>
       <c r="B247" t="s">
-        <v>600</v>
+        <v>638</v>
       </c>
       <c r="C247" s="4" t="s">
-        <v>601</v>
+        <v>639</v>
       </c>
       <c r="D247" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E247" t="s">
-        <v>492</v>
+        <v>594</v>
       </c>
       <c r="G247" s="6">
-        <v>20175</v>
+        <v>201264</v>
       </c>
     </row>
     <row r="248" spans="1:7">
       <c r="A248" t="s">
-        <v>51</v>
+        <v>131</v>
       </c>
       <c r="B248" t="s">
-        <v>602</v>
+        <v>501</v>
       </c>
       <c r="C248" s="4" t="s">
-        <v>603</v>
+        <v>640</v>
       </c>
       <c r="D248" s="4">
         <v>1</v>
       </c>
       <c r="E248" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
       <c r="G248" s="6">
         <v>201264</v>
@@ -8532,19 +8499,22 @@
     </row>
     <row r="249" spans="1:7">
       <c r="A249" t="s">
-        <v>605</v>
+        <v>641</v>
       </c>
       <c r="B249" t="s">
-        <v>606</v>
+        <v>63</v>
       </c>
       <c r="C249" s="4" t="s">
-        <v>607</v>
+        <v>642</v>
       </c>
       <c r="D249" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E249" t="s">
-        <v>604</v>
+        <v>594</v>
+      </c>
+      <c r="F249" s="4">
+        <v>5</v>
       </c>
       <c r="G249" s="6">
         <v>201264</v>
@@ -8552,22 +8522,22 @@
     </row>
     <row r="250" spans="1:7">
       <c r="A250" t="s">
-        <v>19</v>
+        <v>372</v>
       </c>
       <c r="B250" t="s">
-        <v>608</v>
+        <v>643</v>
       </c>
       <c r="C250" s="4" t="s">
-        <v>609</v>
+        <v>644</v>
       </c>
       <c r="D250" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E250" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
       <c r="F250" s="4">
-        <v>4.8148148148148149</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="G250" s="6">
         <v>201264</v>
@@ -8575,22 +8545,22 @@
     </row>
     <row r="251" spans="1:7">
       <c r="A251" t="s">
-        <v>610</v>
+        <v>108</v>
       </c>
       <c r="B251" t="s">
-        <v>611</v>
+        <v>645</v>
       </c>
       <c r="C251" s="4" t="s">
-        <v>612</v>
+        <v>646</v>
       </c>
       <c r="D251" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E251" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
       <c r="F251" s="4">
-        <v>4.9705882352941178</v>
+        <v>5</v>
       </c>
       <c r="G251" s="6">
         <v>201264</v>
@@ -8598,22 +8568,22 @@
     </row>
     <row r="252" spans="1:7">
       <c r="A252" t="s">
-        <v>6</v>
+        <v>311</v>
       </c>
       <c r="B252" t="s">
-        <v>613</v>
+        <v>647</v>
       </c>
       <c r="C252" s="4" t="s">
-        <v>614</v>
+        <v>648</v>
       </c>
       <c r="D252" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E252" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
       <c r="F252" s="4">
-        <v>5</v>
+        <v>4.6896551724137927</v>
       </c>
       <c r="G252" s="6">
         <v>201264</v>
@@ -8621,19 +8591,22 @@
     </row>
     <row r="253" spans="1:7">
       <c r="A253" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="B253" t="s">
-        <v>615</v>
+        <v>649</v>
       </c>
       <c r="C253" s="4" t="s">
-        <v>616</v>
+        <v>650</v>
       </c>
       <c r="D253" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E253" t="s">
-        <v>604</v>
+        <v>594</v>
+      </c>
+      <c r="F253" s="4">
+        <v>5</v>
       </c>
       <c r="G253" s="6">
         <v>201264</v>
@@ -8641,22 +8614,19 @@
     </row>
     <row r="254" spans="1:7">
       <c r="A254" t="s">
-        <v>617</v>
+        <v>34</v>
       </c>
       <c r="B254" t="s">
-        <v>618</v>
-      </c>
-      <c r="C254" s="4" t="s">
-        <v>619</v>
+        <v>651</v>
+      </c>
+      <c r="C254" s="4">
+        <v>37354</v>
       </c>
       <c r="D254" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E254" t="s">
-        <v>604</v>
-      </c>
-      <c r="F254" s="4">
-        <v>5</v>
+        <v>594</v>
       </c>
       <c r="G254" s="6">
         <v>201264</v>
@@ -8664,19 +8634,19 @@
     </row>
     <row r="255" spans="1:7">
       <c r="A255" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="B255" t="s">
-        <v>620</v>
+        <v>652</v>
       </c>
       <c r="C255" s="4" t="s">
-        <v>621</v>
+        <v>653</v>
       </c>
       <c r="D255" s="4">
         <v>1</v>
       </c>
       <c r="E255" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
       <c r="F255" s="4">
         <v>5</v>
@@ -8687,19 +8657,22 @@
     </row>
     <row r="256" spans="1:7">
       <c r="A256" t="s">
-        <v>622</v>
+        <v>472</v>
       </c>
       <c r="B256" t="s">
-        <v>623</v>
+        <v>654</v>
       </c>
       <c r="C256" s="4" t="s">
-        <v>624</v>
+        <v>655</v>
       </c>
       <c r="D256" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E256" t="s">
-        <v>604</v>
+        <v>594</v>
+      </c>
+      <c r="F256" s="4">
+        <v>5</v>
       </c>
       <c r="G256" s="6">
         <v>201264</v>
@@ -8707,19 +8680,19 @@
     </row>
     <row r="257" spans="1:7">
       <c r="A257" t="s">
-        <v>178</v>
+        <v>424</v>
       </c>
       <c r="B257" t="s">
-        <v>625</v>
+        <v>656</v>
       </c>
       <c r="C257" s="4" t="s">
-        <v>626</v>
+        <v>657</v>
       </c>
       <c r="D257" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E257" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
       <c r="G257" s="6">
         <v>201264</v>
@@ -8727,19 +8700,22 @@
     </row>
     <row r="258" spans="1:7">
       <c r="A258" t="s">
-        <v>627</v>
+        <v>658</v>
       </c>
       <c r="B258" t="s">
-        <v>628</v>
+        <v>659</v>
       </c>
       <c r="C258" s="4" t="s">
-        <v>629</v>
+        <v>660</v>
       </c>
       <c r="D258" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E258" t="s">
-        <v>604</v>
+        <v>594</v>
+      </c>
+      <c r="F258" s="4">
+        <v>5</v>
       </c>
       <c r="G258" s="6">
         <v>201264</v>
@@ -8747,22 +8723,19 @@
     </row>
     <row r="259" spans="1:7">
       <c r="A259" t="s">
-        <v>152</v>
+        <v>661</v>
       </c>
       <c r="B259" t="s">
-        <v>630</v>
+        <v>662</v>
       </c>
       <c r="C259" s="4" t="s">
-        <v>631</v>
+        <v>663</v>
       </c>
       <c r="D259" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E259" t="s">
-        <v>604</v>
-      </c>
-      <c r="F259" s="4">
-        <v>5</v>
+        <v>594</v>
       </c>
       <c r="G259" s="6">
         <v>201264</v>
@@ -8770,22 +8743,19 @@
     </row>
     <row r="260" spans="1:7">
       <c r="A260" t="s">
-        <v>430</v>
+        <v>45</v>
       </c>
       <c r="B260" t="s">
-        <v>632</v>
+        <v>504</v>
       </c>
       <c r="C260" s="4" t="s">
-        <v>633</v>
+        <v>664</v>
       </c>
       <c r="D260" s="4">
         <v>1</v>
       </c>
       <c r="E260" t="s">
-        <v>604</v>
-      </c>
-      <c r="F260" s="4">
-        <v>5</v>
+        <v>594</v>
       </c>
       <c r="G260" s="6">
         <v>201264</v>
@@ -8793,22 +8763,19 @@
     </row>
     <row r="261" spans="1:7">
       <c r="A261" t="s">
-        <v>634</v>
+        <v>34</v>
       </c>
       <c r="B261" t="s">
-        <v>635</v>
+        <v>665</v>
       </c>
       <c r="C261" s="4" t="s">
-        <v>636</v>
+        <v>666</v>
       </c>
       <c r="D261" s="4">
         <v>1</v>
       </c>
       <c r="E261" t="s">
-        <v>604</v>
-      </c>
-      <c r="F261" s="4">
-        <v>2.5</v>
+        <v>594</v>
       </c>
       <c r="G261" s="6">
         <v>201264</v>
@@ -8816,19 +8783,22 @@
     </row>
     <row r="262" spans="1:7">
       <c r="A262" t="s">
-        <v>637</v>
+        <v>176</v>
       </c>
       <c r="B262" t="s">
-        <v>638</v>
+        <v>667</v>
       </c>
       <c r="C262" s="4" t="s">
-        <v>639</v>
+        <v>668</v>
       </c>
       <c r="D262" s="4">
         <v>2</v>
       </c>
       <c r="E262" t="s">
-        <v>604</v>
+        <v>594</v>
+      </c>
+      <c r="F262" s="4">
+        <v>5</v>
       </c>
       <c r="G262" s="6">
         <v>201264</v>
@@ -8836,19 +8806,19 @@
     </row>
     <row r="263" spans="1:7">
       <c r="A263" t="s">
-        <v>640</v>
+        <v>298</v>
       </c>
       <c r="B263" t="s">
-        <v>641</v>
+        <v>669</v>
       </c>
       <c r="C263" s="4" t="s">
-        <v>642</v>
+        <v>670</v>
       </c>
       <c r="D263" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E263" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
       <c r="G263" s="6">
         <v>201264</v>
@@ -8856,22 +8826,19 @@
     </row>
     <row r="264" spans="1:7">
       <c r="A264" t="s">
-        <v>167</v>
+        <v>45</v>
       </c>
       <c r="B264" t="s">
-        <v>643</v>
+        <v>160</v>
       </c>
       <c r="C264" s="4" t="s">
-        <v>644</v>
+        <v>671</v>
       </c>
       <c r="D264" s="4">
         <v>1</v>
       </c>
       <c r="E264" t="s">
-        <v>604</v>
-      </c>
-      <c r="F264" s="4">
-        <v>5</v>
+        <v>594</v>
       </c>
       <c r="G264" s="6">
         <v>201264</v>
@@ -8879,22 +8846,19 @@
     </row>
     <row r="265" spans="1:7">
       <c r="A265" t="s">
-        <v>645</v>
+        <v>672</v>
       </c>
       <c r="B265" t="s">
-        <v>7</v>
+        <v>673</v>
       </c>
       <c r="C265" s="4" t="s">
-        <v>646</v>
+        <v>674</v>
       </c>
       <c r="D265" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E265" t="s">
-        <v>604</v>
-      </c>
-      <c r="F265" s="4">
-        <v>4.935483870967742</v>
+        <v>594</v>
       </c>
       <c r="G265" s="6">
         <v>201264</v>
@@ -8902,19 +8866,19 @@
     </row>
     <row r="266" spans="1:7">
       <c r="A266" t="s">
-        <v>647</v>
+        <v>675</v>
       </c>
       <c r="B266" t="s">
-        <v>648</v>
+        <v>676</v>
       </c>
       <c r="C266" s="4" t="s">
-        <v>649</v>
+        <v>677</v>
       </c>
       <c r="D266" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E266" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
       <c r="G266" s="6">
         <v>201264</v>
@@ -8922,19 +8886,22 @@
     </row>
     <row r="267" spans="1:7">
       <c r="A267" t="s">
-        <v>133</v>
+        <v>45</v>
       </c>
       <c r="B267" t="s">
-        <v>507</v>
+        <v>678</v>
       </c>
       <c r="C267" s="4" t="s">
-        <v>650</v>
+        <v>679</v>
       </c>
       <c r="D267" s="4">
         <v>1</v>
       </c>
       <c r="E267" t="s">
-        <v>604</v>
+        <v>594</v>
+      </c>
+      <c r="F267" s="4">
+        <v>4.6296296296296298</v>
       </c>
       <c r="G267" s="6">
         <v>201264</v>
@@ -8942,22 +8909,22 @@
     </row>
     <row r="268" spans="1:7">
       <c r="A268" t="s">
-        <v>651</v>
+        <v>65</v>
       </c>
       <c r="B268" t="s">
-        <v>63</v>
+        <v>680</v>
       </c>
       <c r="C268" s="4" t="s">
-        <v>652</v>
+        <v>681</v>
       </c>
       <c r="D268" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E268" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
       <c r="F268" s="4">
-        <v>5</v>
+        <v>4.583333333333333</v>
       </c>
       <c r="G268" s="6">
         <v>201264</v>
@@ -8965,22 +8932,22 @@
     </row>
     <row r="269" spans="1:7">
       <c r="A269" t="s">
-        <v>377</v>
+        <v>40</v>
       </c>
       <c r="B269" t="s">
-        <v>653</v>
+        <v>682</v>
       </c>
       <c r="C269" s="4" t="s">
-        <v>654</v>
+        <v>683</v>
       </c>
       <c r="D269" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E269" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
       <c r="F269" s="4">
-        <v>4.5999999999999996</v>
+        <v>4.9333333333333336</v>
       </c>
       <c r="G269" s="6">
         <v>201264</v>
@@ -8988,22 +8955,22 @@
     </row>
     <row r="270" spans="1:7">
       <c r="A270" t="s">
-        <v>110</v>
+        <v>684</v>
       </c>
       <c r="B270" t="s">
-        <v>655</v>
+        <v>685</v>
       </c>
       <c r="C270" s="4" t="s">
-        <v>656</v>
+        <v>686</v>
       </c>
       <c r="D270" s="4">
         <v>1</v>
       </c>
       <c r="E270" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
       <c r="F270" s="4">
-        <v>5</v>
+        <v>4.84</v>
       </c>
       <c r="G270" s="6">
         <v>201264</v>
@@ -9011,22 +8978,22 @@
     </row>
     <row r="271" spans="1:7">
       <c r="A271" t="s">
-        <v>315</v>
+        <v>281</v>
       </c>
       <c r="B271" t="s">
-        <v>657</v>
+        <v>687</v>
       </c>
       <c r="C271" s="4" t="s">
-        <v>658</v>
+        <v>688</v>
       </c>
       <c r="D271" s="4">
         <v>1</v>
       </c>
       <c r="E271" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
       <c r="F271" s="4">
-        <v>4.6896551724137927</v>
+        <v>5</v>
       </c>
       <c r="G271" s="6">
         <v>201264</v>
@@ -9034,22 +9001,19 @@
     </row>
     <row r="272" spans="1:7">
       <c r="A272" t="s">
-        <v>80</v>
+        <v>689</v>
       </c>
       <c r="B272" t="s">
-        <v>659</v>
+        <v>690</v>
       </c>
       <c r="C272" s="4" t="s">
-        <v>660</v>
+        <v>691</v>
       </c>
       <c r="D272" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E272" t="s">
-        <v>604</v>
-      </c>
-      <c r="F272" s="4">
-        <v>5</v>
+        <v>594</v>
       </c>
       <c r="G272" s="6">
         <v>201264</v>
@@ -9060,16 +9024,16 @@
         <v>34</v>
       </c>
       <c r="B273" t="s">
-        <v>661</v>
+        <v>692</v>
       </c>
       <c r="C273" s="4" t="s">
-        <v>662</v>
+        <v>693</v>
       </c>
       <c r="D273" s="4">
         <v>1</v>
       </c>
       <c r="E273" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
       <c r="G273" s="6">
         <v>201264</v>
@@ -9077,22 +9041,19 @@
     </row>
     <row r="274" spans="1:7">
       <c r="A274" t="s">
-        <v>288</v>
+        <v>96</v>
       </c>
       <c r="B274" t="s">
-        <v>663</v>
+        <v>694</v>
       </c>
       <c r="C274" s="4" t="s">
-        <v>664</v>
+        <v>695</v>
       </c>
       <c r="D274" s="4">
         <v>1</v>
       </c>
       <c r="E274" t="s">
-        <v>604</v>
-      </c>
-      <c r="F274" s="4">
-        <v>5</v>
+        <v>594</v>
       </c>
       <c r="G274" s="6">
         <v>201264</v>
@@ -9100,22 +9061,19 @@
     </row>
     <row r="275" spans="1:7">
       <c r="A275" t="s">
-        <v>478</v>
+        <v>696</v>
       </c>
       <c r="B275" t="s">
-        <v>665</v>
+        <v>697</v>
       </c>
       <c r="C275" s="4" t="s">
-        <v>666</v>
+        <v>698</v>
       </c>
       <c r="D275" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E275" t="s">
-        <v>604</v>
-      </c>
-      <c r="F275" s="4">
-        <v>5</v>
+        <v>594</v>
       </c>
       <c r="G275" s="6">
         <v>201264</v>
@@ -9123,19 +9081,19 @@
     </row>
     <row r="276" spans="1:7">
       <c r="A276" t="s">
-        <v>430</v>
+        <v>56</v>
       </c>
       <c r="B276" t="s">
-        <v>667</v>
+        <v>699</v>
       </c>
       <c r="C276" s="4" t="s">
-        <v>668</v>
+        <v>700</v>
       </c>
       <c r="D276" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E276" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
       <c r="G276" s="6">
         <v>201264</v>
@@ -9143,19 +9101,19 @@
     </row>
     <row r="277" spans="1:7">
       <c r="A277" t="s">
-        <v>669</v>
+        <v>701</v>
       </c>
       <c r="B277" t="s">
-        <v>670</v>
+        <v>702</v>
       </c>
       <c r="C277" s="4" t="s">
-        <v>671</v>
+        <v>703</v>
       </c>
       <c r="D277" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E277" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
       <c r="F277" s="4">
         <v>5</v>
@@ -9166,19 +9124,19 @@
     </row>
     <row r="278" spans="1:7">
       <c r="A278" t="s">
-        <v>672</v>
+        <v>176</v>
       </c>
       <c r="B278" t="s">
-        <v>673</v>
+        <v>704</v>
       </c>
       <c r="C278" s="4" t="s">
-        <v>674</v>
+        <v>705</v>
       </c>
       <c r="D278" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E278" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
       <c r="G278" s="6">
         <v>201264</v>
@@ -9186,19 +9144,19 @@
     </row>
     <row r="279" spans="1:7">
       <c r="A279" t="s">
-        <v>45</v>
+        <v>150</v>
       </c>
       <c r="B279" t="s">
-        <v>510</v>
+        <v>706</v>
       </c>
       <c r="C279" s="4" t="s">
-        <v>675</v>
+        <v>707</v>
       </c>
       <c r="D279" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E279" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
       <c r="G279" s="6">
         <v>201264</v>
@@ -9206,19 +9164,19 @@
     </row>
     <row r="280" spans="1:7">
       <c r="A280" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="B280" t="s">
-        <v>676</v>
+        <v>708</v>
       </c>
       <c r="C280" s="4" t="s">
-        <v>677</v>
+        <v>709</v>
       </c>
       <c r="D280" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E280" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
       <c r="G280" s="6">
         <v>201264</v>
@@ -9226,22 +9184,19 @@
     </row>
     <row r="281" spans="1:7">
       <c r="A281" t="s">
-        <v>178</v>
+        <v>225</v>
       </c>
       <c r="B281" t="s">
-        <v>678</v>
+        <v>710</v>
       </c>
       <c r="C281" s="4" t="s">
-        <v>679</v>
+        <v>711</v>
       </c>
       <c r="D281" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E281" t="s">
-        <v>604</v>
-      </c>
-      <c r="F281" s="4">
-        <v>5</v>
+        <v>594</v>
       </c>
       <c r="G281" s="6">
         <v>201264</v>
@@ -9249,19 +9204,22 @@
     </row>
     <row r="282" spans="1:7">
       <c r="A282" t="s">
-        <v>302</v>
+        <v>65</v>
       </c>
       <c r="B282" t="s">
-        <v>680</v>
+        <v>712</v>
       </c>
       <c r="C282" s="4" t="s">
-        <v>681</v>
+        <v>713</v>
       </c>
       <c r="D282" s="4">
         <v>1</v>
       </c>
       <c r="E282" t="s">
-        <v>604</v>
+        <v>594</v>
+      </c>
+      <c r="F282" s="4">
+        <v>4.8684210526315788</v>
       </c>
       <c r="G282" s="6">
         <v>201264</v>
@@ -9269,19 +9227,22 @@
     </row>
     <row r="283" spans="1:7">
       <c r="A283" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="B283" t="s">
-        <v>162</v>
+        <v>714</v>
       </c>
       <c r="C283" s="4" t="s">
-        <v>682</v>
+        <v>715</v>
       </c>
       <c r="D283" s="4">
         <v>1</v>
       </c>
       <c r="E283" t="s">
-        <v>604</v>
+        <v>594</v>
+      </c>
+      <c r="F283" s="4">
+        <v>4.875</v>
       </c>
       <c r="G283" s="6">
         <v>201264</v>
@@ -9289,19 +9250,22 @@
     </row>
     <row r="284" spans="1:7">
       <c r="A284" t="s">
-        <v>683</v>
+        <v>421</v>
       </c>
       <c r="B284" t="s">
-        <v>684</v>
+        <v>716</v>
       </c>
       <c r="C284" s="4" t="s">
-        <v>685</v>
+        <v>717</v>
       </c>
       <c r="D284" s="4">
         <v>1</v>
       </c>
       <c r="E284" t="s">
-        <v>604</v>
+        <v>594</v>
+      </c>
+      <c r="F284" s="4">
+        <v>4.8292682926829267</v>
       </c>
       <c r="G284" s="6">
         <v>201264</v>
@@ -9309,19 +9273,22 @@
     </row>
     <row r="285" spans="1:7">
       <c r="A285" t="s">
-        <v>686</v>
+        <v>718</v>
       </c>
       <c r="B285" t="s">
-        <v>687</v>
+        <v>719</v>
       </c>
       <c r="C285" s="4" t="s">
-        <v>688</v>
+        <v>720</v>
       </c>
       <c r="D285" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E285" t="s">
-        <v>604</v>
+        <v>594</v>
+      </c>
+      <c r="F285" s="4">
+        <v>5</v>
       </c>
       <c r="G285" s="6">
         <v>201264</v>
@@ -9329,22 +9296,19 @@
     </row>
     <row r="286" spans="1:7">
       <c r="A286" t="s">
-        <v>45</v>
+        <v>721</v>
       </c>
       <c r="B286" t="s">
-        <v>689</v>
+        <v>722</v>
       </c>
       <c r="C286" s="4" t="s">
-        <v>690</v>
+        <v>723</v>
       </c>
       <c r="D286" s="4">
         <v>1</v>
       </c>
       <c r="E286" t="s">
-        <v>604</v>
-      </c>
-      <c r="F286" s="4">
-        <v>4.6296296296296298</v>
+        <v>594</v>
       </c>
       <c r="G286" s="6">
         <v>201264</v>
@@ -9352,653 +9316,656 @@
     </row>
     <row r="287" spans="1:7">
       <c r="A287" t="s">
-        <v>65</v>
+        <v>724</v>
       </c>
       <c r="B287" t="s">
-        <v>691</v>
+        <v>725</v>
       </c>
       <c r="C287" s="4" t="s">
-        <v>692</v>
+        <v>726</v>
       </c>
       <c r="D287" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E287" t="s">
-        <v>604</v>
+        <v>727</v>
       </c>
       <c r="F287" s="4">
-        <v>4.583333333333333</v>
+        <v>4.2</v>
       </c>
       <c r="G287" s="6">
-        <v>201264</v>
+        <v>211238</v>
       </c>
     </row>
     <row r="288" spans="1:7">
       <c r="A288" t="s">
-        <v>40</v>
+        <v>728</v>
       </c>
       <c r="B288" t="s">
-        <v>693</v>
+        <v>729</v>
       </c>
       <c r="C288" s="4" t="s">
-        <v>694</v>
+        <v>730</v>
       </c>
       <c r="D288" s="4">
         <v>1</v>
       </c>
       <c r="E288" t="s">
-        <v>604</v>
+        <v>727</v>
       </c>
       <c r="F288" s="4">
-        <v>4.9333333333333336</v>
+        <v>5</v>
       </c>
       <c r="G288" s="6">
-        <v>201264</v>
+        <v>211238</v>
       </c>
     </row>
     <row r="289" spans="1:7">
       <c r="A289" t="s">
-        <v>695</v>
+        <v>731</v>
       </c>
       <c r="B289" t="s">
-        <v>696</v>
+        <v>732</v>
       </c>
       <c r="C289" s="4" t="s">
-        <v>697</v>
+        <v>733</v>
       </c>
       <c r="D289" s="4">
         <v>1</v>
       </c>
       <c r="E289" t="s">
-        <v>604</v>
+        <v>727</v>
       </c>
       <c r="F289" s="4">
-        <v>4.84</v>
+        <v>2.714285714285714</v>
       </c>
       <c r="G289" s="6">
-        <v>201264</v>
+        <v>211238</v>
       </c>
     </row>
     <row r="290" spans="1:7">
       <c r="A290" t="s">
-        <v>285</v>
+        <v>734</v>
       </c>
       <c r="B290" t="s">
-        <v>698</v>
+        <v>735</v>
       </c>
       <c r="C290" s="4" t="s">
-        <v>699</v>
+        <v>736</v>
       </c>
       <c r="D290" s="4">
         <v>1</v>
       </c>
       <c r="E290" t="s">
-        <v>604</v>
+        <v>727</v>
       </c>
       <c r="F290" s="4">
-        <v>5</v>
+        <v>4.9230769230769234</v>
       </c>
       <c r="G290" s="6">
-        <v>201264</v>
+        <v>211238</v>
       </c>
     </row>
     <row r="291" spans="1:7">
       <c r="A291" t="s">
-        <v>700</v>
+        <v>737</v>
       </c>
       <c r="B291" t="s">
-        <v>701</v>
+        <v>738</v>
       </c>
       <c r="C291" s="4" t="s">
-        <v>702</v>
+        <v>739</v>
       </c>
       <c r="D291" s="4">
         <v>2</v>
       </c>
       <c r="E291" t="s">
-        <v>604</v>
+        <v>727</v>
+      </c>
+      <c r="F291" s="4">
+        <v>4.6818181818181817</v>
       </c>
       <c r="G291" s="6">
-        <v>201264</v>
+        <v>211238</v>
       </c>
     </row>
     <row r="292" spans="1:7">
       <c r="A292" t="s">
-        <v>34</v>
+        <v>737</v>
       </c>
       <c r="B292" t="s">
-        <v>703</v>
+        <v>740</v>
       </c>
       <c r="C292" s="4" t="s">
-        <v>704</v>
+        <v>741</v>
       </c>
       <c r="D292" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E292" t="s">
-        <v>604</v>
+        <v>727</v>
       </c>
       <c r="G292" s="6">
-        <v>201264</v>
+        <v>211238</v>
       </c>
     </row>
     <row r="293" spans="1:7">
       <c r="A293" t="s">
-        <v>98</v>
+        <v>225</v>
       </c>
       <c r="B293" t="s">
-        <v>705</v>
+        <v>742</v>
       </c>
       <c r="C293" s="4" t="s">
-        <v>706</v>
+        <v>743</v>
       </c>
       <c r="D293" s="4">
         <v>1</v>
       </c>
       <c r="E293" t="s">
-        <v>604</v>
+        <v>727</v>
+      </c>
+      <c r="F293" s="4">
+        <v>5</v>
       </c>
       <c r="G293" s="6">
-        <v>201264</v>
+        <v>211238</v>
       </c>
     </row>
     <row r="294" spans="1:7">
       <c r="A294" t="s">
-        <v>707</v>
+        <v>298</v>
       </c>
       <c r="B294" t="s">
-        <v>708</v>
+        <v>509</v>
       </c>
       <c r="C294" s="4" t="s">
-        <v>709</v>
+        <v>744</v>
       </c>
       <c r="D294" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E294" t="s">
-        <v>604</v>
+        <v>727</v>
+      </c>
+      <c r="F294" s="4">
+        <v>5</v>
       </c>
       <c r="G294" s="6">
-        <v>201264</v>
+        <v>211238</v>
       </c>
     </row>
     <row r="295" spans="1:7">
       <c r="A295" t="s">
-        <v>56</v>
+        <v>745</v>
       </c>
       <c r="B295" t="s">
-        <v>710</v>
+        <v>746</v>
       </c>
       <c r="C295" s="4" t="s">
-        <v>711</v>
+        <v>747</v>
       </c>
       <c r="D295" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E295" t="s">
-        <v>604</v>
+        <v>727</v>
+      </c>
+      <c r="F295" s="4">
+        <v>4.666666666666667</v>
       </c>
       <c r="G295" s="6">
-        <v>201264</v>
+        <v>211238</v>
       </c>
     </row>
     <row r="296" spans="1:7">
       <c r="A296" t="s">
-        <v>712</v>
+        <v>748</v>
       </c>
       <c r="B296" t="s">
-        <v>713</v>
+        <v>749</v>
       </c>
       <c r="C296" s="4" t="s">
-        <v>714</v>
+        <v>750</v>
       </c>
       <c r="D296" s="4">
         <v>2</v>
       </c>
       <c r="E296" t="s">
-        <v>604</v>
-      </c>
-      <c r="F296" s="4">
-        <v>5</v>
+        <v>727</v>
       </c>
       <c r="G296" s="6">
-        <v>201264</v>
+        <v>211238</v>
       </c>
     </row>
     <row r="297" spans="1:7">
       <c r="A297" t="s">
-        <v>178</v>
+        <v>379</v>
       </c>
       <c r="B297" t="s">
-        <v>715</v>
+        <v>751</v>
       </c>
       <c r="C297" s="4" t="s">
-        <v>716</v>
+        <v>752</v>
       </c>
       <c r="D297" s="4">
         <v>2</v>
       </c>
       <c r="E297" t="s">
-        <v>604</v>
+        <v>753</v>
+      </c>
+      <c r="F297" s="4">
+        <v>5</v>
       </c>
       <c r="G297" s="6">
-        <v>201264</v>
+        <v>211131</v>
       </c>
     </row>
     <row r="298" spans="1:7">
       <c r="A298" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B298" t="s">
-        <v>717</v>
+        <v>754</v>
       </c>
       <c r="C298" s="4" t="s">
-        <v>718</v>
+        <v>755</v>
       </c>
       <c r="D298" s="4">
         <v>2</v>
       </c>
       <c r="E298" t="s">
-        <v>604</v>
+        <v>753</v>
+      </c>
+      <c r="F298" s="4">
+        <v>5</v>
       </c>
       <c r="G298" s="6">
-        <v>201264</v>
+        <v>211131</v>
       </c>
     </row>
     <row r="299" spans="1:7">
       <c r="A299" t="s">
-        <v>56</v>
+        <v>756</v>
       </c>
       <c r="B299" t="s">
-        <v>719</v>
+        <v>757</v>
       </c>
       <c r="C299" s="4" t="s">
-        <v>720</v>
+        <v>758</v>
       </c>
       <c r="D299" s="4">
         <v>2</v>
       </c>
       <c r="E299" t="s">
-        <v>604</v>
+        <v>753</v>
       </c>
       <c r="G299" s="6">
-        <v>201264</v>
+        <v>211131</v>
       </c>
     </row>
     <row r="300" spans="1:7">
       <c r="A300" t="s">
-        <v>228</v>
+        <v>56</v>
       </c>
       <c r="B300" t="s">
-        <v>721</v>
+        <v>759</v>
       </c>
       <c r="C300" s="4" t="s">
-        <v>722</v>
+        <v>760</v>
       </c>
       <c r="D300" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E300" t="s">
-        <v>604</v>
+        <v>753</v>
       </c>
       <c r="G300" s="6">
-        <v>201264</v>
+        <v>211131</v>
       </c>
     </row>
     <row r="301" spans="1:7">
       <c r="A301" t="s">
-        <v>65</v>
+        <v>761</v>
       </c>
       <c r="B301" t="s">
-        <v>723</v>
+        <v>762</v>
       </c>
       <c r="C301" s="4" t="s">
-        <v>724</v>
+        <v>763</v>
       </c>
       <c r="D301" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E301" t="s">
-        <v>604</v>
-      </c>
-      <c r="F301" s="4">
-        <v>4.8684210526315788</v>
+        <v>753</v>
       </c>
       <c r="G301" s="6">
-        <v>201264</v>
+        <v>211131</v>
       </c>
     </row>
     <row r="302" spans="1:7">
       <c r="A302" t="s">
-        <v>19</v>
+        <v>764</v>
       </c>
       <c r="B302" t="s">
-        <v>725</v>
+        <v>765</v>
       </c>
       <c r="C302" s="4" t="s">
-        <v>726</v>
+        <v>766</v>
       </c>
       <c r="D302" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E302" t="s">
-        <v>604</v>
-      </c>
-      <c r="F302" s="4">
-        <v>4.875</v>
+        <v>753</v>
       </c>
       <c r="G302" s="6">
-        <v>201264</v>
+        <v>211131</v>
       </c>
     </row>
     <row r="303" spans="1:7">
       <c r="A303" t="s">
-        <v>427</v>
+        <v>150</v>
       </c>
       <c r="B303" t="s">
-        <v>727</v>
+        <v>767</v>
       </c>
       <c r="C303" s="4" t="s">
-        <v>728</v>
+        <v>768</v>
       </c>
       <c r="D303" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E303" t="s">
-        <v>604</v>
+        <v>753</v>
       </c>
       <c r="F303" s="4">
-        <v>4.8292682926829267</v>
+        <v>2</v>
       </c>
       <c r="G303" s="6">
-        <v>201264</v>
+        <v>211131</v>
       </c>
     </row>
     <row r="304" spans="1:7">
       <c r="A304" t="s">
-        <v>729</v>
+        <v>147</v>
       </c>
       <c r="B304" t="s">
-        <v>730</v>
+        <v>769</v>
       </c>
       <c r="C304" s="4" t="s">
-        <v>731</v>
+        <v>770</v>
       </c>
       <c r="D304" s="4">
         <v>2</v>
       </c>
       <c r="E304" t="s">
-        <v>604</v>
-      </c>
-      <c r="F304" s="4">
-        <v>5</v>
+        <v>753</v>
       </c>
       <c r="G304" s="6">
-        <v>201264</v>
+        <v>211131</v>
       </c>
     </row>
     <row r="305" spans="1:7">
       <c r="A305" t="s">
-        <v>732</v>
+        <v>771</v>
       </c>
       <c r="B305" t="s">
-        <v>733</v>
+        <v>772</v>
       </c>
       <c r="C305" s="4" t="s">
-        <v>734</v>
+        <v>773</v>
       </c>
       <c r="D305" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E305" t="s">
-        <v>604</v>
+        <v>753</v>
       </c>
       <c r="G305" s="6">
-        <v>201264</v>
+        <v>211131</v>
       </c>
     </row>
     <row r="306" spans="1:7">
       <c r="A306" t="s">
-        <v>735</v>
+        <v>774</v>
       </c>
       <c r="B306" t="s">
-        <v>736</v>
+        <v>775</v>
       </c>
       <c r="C306" s="4" t="s">
-        <v>737</v>
+        <v>776</v>
       </c>
       <c r="D306" s="4">
         <v>2</v>
       </c>
       <c r="E306" t="s">
-        <v>738</v>
-      </c>
-      <c r="F306" s="4">
-        <v>4.2</v>
+        <v>753</v>
       </c>
       <c r="G306" s="6">
-        <v>211238</v>
+        <v>211131</v>
       </c>
     </row>
     <row r="307" spans="1:7">
       <c r="A307" t="s">
-        <v>739</v>
+        <v>414</v>
       </c>
       <c r="B307" t="s">
-        <v>740</v>
+        <v>777</v>
       </c>
       <c r="C307" s="4" t="s">
-        <v>741</v>
+        <v>778</v>
       </c>
       <c r="D307" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E307" t="s">
-        <v>738</v>
+        <v>753</v>
       </c>
       <c r="F307" s="4">
         <v>5</v>
       </c>
       <c r="G307" s="6">
-        <v>211238</v>
+        <v>211131</v>
       </c>
     </row>
     <row r="308" spans="1:7">
       <c r="A308" t="s">
-        <v>742</v>
+        <v>150</v>
       </c>
       <c r="B308" t="s">
-        <v>743</v>
+        <v>779</v>
       </c>
       <c r="C308" s="4" t="s">
-        <v>744</v>
+        <v>780</v>
       </c>
       <c r="D308" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E308" t="s">
-        <v>738</v>
+        <v>753</v>
       </c>
       <c r="F308" s="4">
-        <v>2.714285714285714</v>
+        <v>4.4285714285714288</v>
       </c>
       <c r="G308" s="6">
-        <v>211238</v>
+        <v>211131</v>
       </c>
     </row>
     <row r="309" spans="1:7">
       <c r="A309" t="s">
-        <v>745</v>
+        <v>781</v>
       </c>
       <c r="B309" t="s">
-        <v>746</v>
+        <v>782</v>
       </c>
       <c r="C309" s="4" t="s">
-        <v>747</v>
+        <v>783</v>
       </c>
       <c r="D309" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E309" t="s">
-        <v>738</v>
+        <v>753</v>
       </c>
       <c r="F309" s="4">
-        <v>4.9230769230769234</v>
+        <v>4.166666666666667</v>
       </c>
       <c r="G309" s="6">
-        <v>211238</v>
+        <v>211131</v>
       </c>
     </row>
     <row r="310" spans="1:7">
       <c r="A310" t="s">
-        <v>748</v>
+        <v>764</v>
       </c>
       <c r="B310" t="s">
-        <v>749</v>
+        <v>590</v>
       </c>
       <c r="C310" s="4" t="s">
-        <v>750</v>
+        <v>784</v>
       </c>
       <c r="D310" s="4">
         <v>2</v>
       </c>
       <c r="E310" t="s">
-        <v>738</v>
+        <v>753</v>
       </c>
       <c r="F310" s="4">
-        <v>4.6818181818181817</v>
+        <v>1</v>
       </c>
       <c r="G310" s="6">
-        <v>211238</v>
+        <v>211131</v>
       </c>
     </row>
     <row r="311" spans="1:7">
       <c r="A311" t="s">
-        <v>748</v>
+        <v>216</v>
       </c>
       <c r="B311" t="s">
-        <v>751</v>
+        <v>785</v>
       </c>
       <c r="C311" s="4" t="s">
-        <v>752</v>
+        <v>786</v>
       </c>
       <c r="D311" s="4">
         <v>2</v>
       </c>
       <c r="E311" t="s">
-        <v>738</v>
+        <v>753</v>
+      </c>
+      <c r="F311" s="4">
+        <v>2.1428571428571428</v>
       </c>
       <c r="G311" s="6">
-        <v>211238</v>
+        <v>211131</v>
       </c>
     </row>
     <row r="312" spans="1:7">
       <c r="A312" t="s">
-        <v>228</v>
+        <v>600</v>
       </c>
       <c r="B312" t="s">
+        <v>787</v>
+      </c>
+      <c r="C312" s="4" t="s">
+        <v>788</v>
+      </c>
+      <c r="D312" s="4">
+        <v>2</v>
+      </c>
+      <c r="E312" t="s">
         <v>753</v>
-      </c>
-      <c r="C312" s="4" t="s">
-        <v>754</v>
-      </c>
-      <c r="D312" s="4">
-        <v>1</v>
-      </c>
-      <c r="E312" t="s">
-        <v>738</v>
       </c>
       <c r="F312" s="4">
         <v>5</v>
       </c>
       <c r="G312" s="6">
-        <v>211238</v>
+        <v>211131</v>
       </c>
     </row>
     <row r="313" spans="1:7">
       <c r="A313" t="s">
-        <v>302</v>
+        <v>789</v>
       </c>
       <c r="B313" t="s">
-        <v>515</v>
+        <v>790</v>
       </c>
       <c r="C313" s="4" t="s">
-        <v>755</v>
+        <v>791</v>
       </c>
       <c r="D313" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E313" t="s">
-        <v>738</v>
-      </c>
-      <c r="F313" s="4">
-        <v>5</v>
+        <v>753</v>
       </c>
       <c r="G313" s="6">
-        <v>211238</v>
+        <v>211131</v>
       </c>
     </row>
     <row r="314" spans="1:7">
       <c r="A314" t="s">
-        <v>756</v>
+        <v>792</v>
       </c>
       <c r="B314" t="s">
-        <v>757</v>
+        <v>793</v>
       </c>
       <c r="C314" s="4" t="s">
-        <v>758</v>
+        <v>794</v>
       </c>
       <c r="D314" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E314" t="s">
-        <v>738</v>
-      </c>
-      <c r="F314" s="4">
-        <v>4.666666666666667</v>
+        <v>753</v>
       </c>
       <c r="G314" s="6">
-        <v>211238</v>
+        <v>211131</v>
       </c>
     </row>
     <row r="315" spans="1:7">
       <c r="A315" t="s">
-        <v>759</v>
+        <v>125</v>
       </c>
       <c r="B315" t="s">
-        <v>760</v>
+        <v>7</v>
       </c>
       <c r="C315" s="4" t="s">
-        <v>761</v>
+        <v>795</v>
       </c>
       <c r="D315" s="4">
         <v>2</v>
       </c>
       <c r="E315" t="s">
-        <v>738</v>
+        <v>753</v>
+      </c>
+      <c r="F315" s="4">
+        <v>4.4285714285714288</v>
       </c>
       <c r="G315" s="6">
-        <v>211238</v>
+        <v>211131</v>
       </c>
     </row>
     <row r="316" spans="1:7">
       <c r="A316" t="s">
-        <v>384</v>
+        <v>796</v>
       </c>
       <c r="B316" t="s">
-        <v>762</v>
+        <v>797</v>
       </c>
       <c r="C316" s="4" t="s">
-        <v>763</v>
+        <v>798</v>
       </c>
       <c r="D316" s="4">
         <v>2</v>
       </c>
       <c r="E316" t="s">
-        <v>764</v>
+        <v>753</v>
       </c>
       <c r="F316" s="4">
-        <v>5</v>
+        <v>4.580645161290323</v>
       </c>
       <c r="G316" s="6">
         <v>211131</v>
@@ -10006,19 +9973,19 @@
     </row>
     <row r="317" spans="1:7">
       <c r="A317" t="s">
-        <v>152</v>
+        <v>630</v>
       </c>
       <c r="B317" t="s">
-        <v>765</v>
+        <v>799</v>
       </c>
       <c r="C317" s="4" t="s">
-        <v>766</v>
+        <v>800</v>
       </c>
       <c r="D317" s="4">
         <v>2</v>
       </c>
       <c r="E317" t="s">
-        <v>764</v>
+        <v>753</v>
       </c>
       <c r="F317" s="4">
         <v>5</v>
@@ -10029,19 +9996,22 @@
     </row>
     <row r="318" spans="1:7">
       <c r="A318" t="s">
-        <v>767</v>
+        <v>801</v>
       </c>
       <c r="B318" t="s">
-        <v>768</v>
+        <v>802</v>
       </c>
       <c r="C318" s="4" t="s">
-        <v>769</v>
+        <v>803</v>
       </c>
       <c r="D318" s="4">
         <v>2</v>
       </c>
       <c r="E318" t="s">
-        <v>764</v>
+        <v>753</v>
+      </c>
+      <c r="F318" s="4">
+        <v>4.9090909090909092</v>
       </c>
       <c r="G318" s="6">
         <v>211131</v>
@@ -10049,19 +10019,22 @@
     </row>
     <row r="319" spans="1:7">
       <c r="A319" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="B319" t="s">
-        <v>770</v>
-      </c>
-      <c r="C319" s="4" t="s">
-        <v>771</v>
+        <v>804</v>
+      </c>
+      <c r="C319" s="4">
+        <v>78816</v>
       </c>
       <c r="D319" s="4">
         <v>2</v>
       </c>
       <c r="E319" t="s">
-        <v>764</v>
+        <v>753</v>
+      </c>
+      <c r="F319" s="4">
+        <v>5</v>
       </c>
       <c r="G319" s="6">
         <v>211131</v>
@@ -10069,19 +10042,22 @@
     </row>
     <row r="320" spans="1:7">
       <c r="A320" t="s">
-        <v>772</v>
+        <v>805</v>
       </c>
       <c r="B320" t="s">
-        <v>773</v>
+        <v>806</v>
       </c>
       <c r="C320" s="4" t="s">
-        <v>774</v>
+        <v>807</v>
       </c>
       <c r="D320" s="4">
         <v>2</v>
       </c>
       <c r="E320" t="s">
-        <v>764</v>
+        <v>753</v>
+      </c>
+      <c r="F320" s="4">
+        <v>5</v>
       </c>
       <c r="G320" s="6">
         <v>211131</v>
@@ -10089,19 +10065,19 @@
     </row>
     <row r="321" spans="1:7">
       <c r="A321" t="s">
-        <v>775</v>
+        <v>808</v>
       </c>
       <c r="B321" t="s">
-        <v>776</v>
+        <v>809</v>
       </c>
       <c r="C321" s="4" t="s">
-        <v>777</v>
+        <v>810</v>
       </c>
       <c r="D321" s="4">
         <v>2</v>
       </c>
       <c r="E321" t="s">
-        <v>764</v>
+        <v>753</v>
       </c>
       <c r="G321" s="6">
         <v>211131</v>
@@ -10109,22 +10085,19 @@
     </row>
     <row r="322" spans="1:7">
       <c r="A322" t="s">
-        <v>152</v>
+        <v>56</v>
       </c>
       <c r="B322" t="s">
-        <v>778</v>
+        <v>811</v>
       </c>
       <c r="C322" s="4" t="s">
-        <v>779</v>
+        <v>812</v>
       </c>
       <c r="D322" s="4">
         <v>2</v>
       </c>
       <c r="E322" t="s">
-        <v>764</v>
-      </c>
-      <c r="F322" s="4">
-        <v>2</v>
+        <v>753</v>
       </c>
       <c r="G322" s="6">
         <v>211131</v>
@@ -10132,19 +10105,22 @@
     </row>
     <row r="323" spans="1:7">
       <c r="A323" t="s">
-        <v>149</v>
+        <v>813</v>
       </c>
       <c r="B323" t="s">
-        <v>780</v>
+        <v>814</v>
       </c>
       <c r="C323" s="4" t="s">
-        <v>781</v>
+        <v>815</v>
       </c>
       <c r="D323" s="4">
         <v>2</v>
       </c>
       <c r="E323" t="s">
-        <v>764</v>
+        <v>753</v>
+      </c>
+      <c r="F323" s="4">
+        <v>5</v>
       </c>
       <c r="G323" s="6">
         <v>211131</v>
@@ -10152,19 +10128,19 @@
     </row>
     <row r="324" spans="1:7">
       <c r="A324" t="s">
-        <v>782</v>
+        <v>816</v>
       </c>
       <c r="B324" t="s">
-        <v>783</v>
+        <v>817</v>
       </c>
       <c r="C324" s="4" t="s">
-        <v>784</v>
+        <v>818</v>
       </c>
       <c r="D324" s="4">
         <v>2</v>
       </c>
       <c r="E324" t="s">
-        <v>764</v>
+        <v>753</v>
       </c>
       <c r="G324" s="6">
         <v>211131</v>
@@ -10172,19 +10148,22 @@
     </row>
     <row r="325" spans="1:7">
       <c r="A325" t="s">
-        <v>785</v>
+        <v>819</v>
       </c>
       <c r="B325" t="s">
-        <v>786</v>
+        <v>820</v>
       </c>
       <c r="C325" s="4" t="s">
-        <v>787</v>
+        <v>821</v>
       </c>
       <c r="D325" s="4">
         <v>2</v>
       </c>
       <c r="E325" t="s">
-        <v>764</v>
+        <v>753</v>
+      </c>
+      <c r="F325" s="4">
+        <v>5</v>
       </c>
       <c r="G325" s="6">
         <v>211131</v>
@@ -10192,22 +10171,22 @@
     </row>
     <row r="326" spans="1:7">
       <c r="A326" t="s">
-        <v>420</v>
+        <v>822</v>
       </c>
       <c r="B326" t="s">
-        <v>788</v>
+        <v>380</v>
       </c>
       <c r="C326" s="4" t="s">
-        <v>789</v>
+        <v>823</v>
       </c>
       <c r="D326" s="4">
         <v>2</v>
       </c>
       <c r="E326" t="s">
-        <v>764</v>
+        <v>753</v>
       </c>
       <c r="F326" s="4">
-        <v>5</v>
+        <v>4.8717948717948714</v>
       </c>
       <c r="G326" s="6">
         <v>211131</v>
@@ -10215,22 +10194,22 @@
     </row>
     <row r="327" spans="1:7">
       <c r="A327" t="s">
-        <v>152</v>
+        <v>824</v>
       </c>
       <c r="B327" t="s">
-        <v>790</v>
+        <v>825</v>
       </c>
       <c r="C327" s="4" t="s">
-        <v>791</v>
+        <v>826</v>
       </c>
       <c r="D327" s="4">
         <v>2</v>
       </c>
       <c r="E327" t="s">
-        <v>764</v>
+        <v>753</v>
       </c>
       <c r="F327" s="4">
-        <v>4.4285714285714288</v>
+        <v>2.25</v>
       </c>
       <c r="G327" s="6">
         <v>211131</v>
@@ -10238,22 +10217,19 @@
     </row>
     <row r="328" spans="1:7">
       <c r="A328" t="s">
-        <v>792</v>
+        <v>827</v>
       </c>
       <c r="B328" t="s">
-        <v>793</v>
+        <v>126</v>
       </c>
       <c r="C328" s="4" t="s">
-        <v>794</v>
+        <v>828</v>
       </c>
       <c r="D328" s="4">
         <v>2</v>
       </c>
       <c r="E328" t="s">
-        <v>764</v>
-      </c>
-      <c r="F328" s="4">
-        <v>4.166666666666667</v>
+        <v>753</v>
       </c>
       <c r="G328" s="6">
         <v>211131</v>
@@ -10261,22 +10237,22 @@
     </row>
     <row r="329" spans="1:7">
       <c r="A329" t="s">
-        <v>775</v>
+        <v>829</v>
       </c>
       <c r="B329" t="s">
-        <v>600</v>
+        <v>830</v>
       </c>
       <c r="C329" s="4" t="s">
-        <v>795</v>
+        <v>831</v>
       </c>
       <c r="D329" s="4">
         <v>2</v>
       </c>
       <c r="E329" t="s">
-        <v>764</v>
+        <v>753</v>
       </c>
       <c r="F329" s="4">
-        <v>1</v>
+        <v>4.8840579710144931</v>
       </c>
       <c r="G329" s="6">
         <v>211131</v>
@@ -10284,783 +10260,344 @@
     </row>
     <row r="330" spans="1:7">
       <c r="A330" t="s">
-        <v>219</v>
+        <v>832</v>
       </c>
       <c r="B330" t="s">
-        <v>796</v>
+        <v>833</v>
       </c>
       <c r="C330" s="4" t="s">
-        <v>797</v>
+        <v>834</v>
       </c>
       <c r="D330" s="4">
         <v>2</v>
       </c>
       <c r="E330" t="s">
-        <v>764</v>
-      </c>
-      <c r="F330" s="4">
-        <v>2.1428571428571428</v>
+        <v>835</v>
       </c>
       <c r="G330" s="6">
-        <v>211131</v>
+        <v>191306</v>
       </c>
     </row>
     <row r="331" spans="1:7">
       <c r="A331" t="s">
-        <v>610</v>
+        <v>150</v>
       </c>
       <c r="B331" t="s">
-        <v>798</v>
+        <v>598</v>
       </c>
       <c r="C331" s="4" t="s">
-        <v>799</v>
+        <v>836</v>
       </c>
       <c r="D331" s="4">
         <v>2</v>
       </c>
       <c r="E331" t="s">
-        <v>764</v>
-      </c>
-      <c r="F331" s="4">
-        <v>5</v>
+        <v>835</v>
       </c>
       <c r="G331" s="6">
-        <v>211131</v>
+        <v>191306</v>
       </c>
     </row>
     <row r="332" spans="1:7">
       <c r="A332" t="s">
-        <v>800</v>
+        <v>837</v>
       </c>
       <c r="B332" t="s">
-        <v>801</v>
+        <v>838</v>
       </c>
       <c r="C332" s="4" t="s">
-        <v>802</v>
+        <v>839</v>
       </c>
       <c r="D332" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E332" t="s">
-        <v>764</v>
+        <v>835</v>
       </c>
       <c r="G332" s="6">
-        <v>211131</v>
+        <v>191306</v>
       </c>
     </row>
     <row r="333" spans="1:7">
       <c r="A333" t="s">
-        <v>803</v>
+        <v>840</v>
       </c>
       <c r="B333" t="s">
-        <v>804</v>
+        <v>509</v>
       </c>
       <c r="C333" s="4" t="s">
-        <v>805</v>
+        <v>841</v>
       </c>
       <c r="D333" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E333" t="s">
-        <v>764</v>
+        <v>835</v>
       </c>
       <c r="G333" s="6">
-        <v>211131</v>
+        <v>191306</v>
       </c>
     </row>
     <row r="334" spans="1:7">
       <c r="A334" t="s">
-        <v>127</v>
+        <v>842</v>
       </c>
       <c r="B334" t="s">
-        <v>7</v>
+        <v>843</v>
       </c>
       <c r="C334" s="4" t="s">
-        <v>806</v>
+        <v>844</v>
       </c>
       <c r="D334" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E334" t="s">
-        <v>764</v>
-      </c>
-      <c r="F334" s="4">
-        <v>4.4285714285714288</v>
+        <v>835</v>
       </c>
       <c r="G334" s="6">
-        <v>211131</v>
+        <v>191306</v>
       </c>
     </row>
     <row r="335" spans="1:7">
       <c r="A335" t="s">
-        <v>807</v>
+        <v>10</v>
       </c>
       <c r="B335" t="s">
-        <v>808</v>
+        <v>845</v>
       </c>
       <c r="C335" s="4" t="s">
-        <v>809</v>
+        <v>846</v>
       </c>
       <c r="D335" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E335" t="s">
-        <v>764</v>
+        <v>835</v>
       </c>
       <c r="F335" s="4">
-        <v>4.580645161290323</v>
+        <v>5</v>
       </c>
       <c r="G335" s="6">
-        <v>211131</v>
+        <v>191306</v>
       </c>
     </row>
     <row r="336" spans="1:7">
       <c r="A336" t="s">
-        <v>640</v>
+        <v>264</v>
       </c>
       <c r="B336" t="s">
-        <v>810</v>
+        <v>847</v>
       </c>
       <c r="C336" s="4" t="s">
-        <v>811</v>
+        <v>848</v>
       </c>
       <c r="D336" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E336" t="s">
-        <v>764</v>
-      </c>
-      <c r="F336" s="4">
-        <v>5</v>
+        <v>835</v>
       </c>
       <c r="G336" s="6">
-        <v>211131</v>
+        <v>191306</v>
       </c>
     </row>
     <row r="337" spans="1:7">
       <c r="A337" t="s">
-        <v>812</v>
+        <v>849</v>
       </c>
       <c r="B337" t="s">
-        <v>813</v>
+        <v>850</v>
       </c>
       <c r="C337" s="4" t="s">
-        <v>814</v>
+        <v>851</v>
       </c>
       <c r="D337" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E337" t="s">
-        <v>764</v>
-      </c>
-      <c r="F337" s="4">
-        <v>4.9090909090909092</v>
+        <v>835</v>
       </c>
       <c r="G337" s="6">
-        <v>211131</v>
+        <v>191306</v>
       </c>
     </row>
     <row r="338" spans="1:7">
       <c r="A338" t="s">
-        <v>6</v>
+        <v>852</v>
       </c>
       <c r="B338" t="s">
-        <v>815</v>
+        <v>853</v>
       </c>
       <c r="C338" s="4" t="s">
-        <v>816</v>
+        <v>854</v>
       </c>
       <c r="D338" s="4">
         <v>2</v>
       </c>
       <c r="E338" t="s">
-        <v>764</v>
-      </c>
-      <c r="F338" s="4">
-        <v>5</v>
+        <v>835</v>
       </c>
       <c r="G338" s="6">
-        <v>211131</v>
+        <v>191306</v>
       </c>
     </row>
     <row r="339" spans="1:7">
       <c r="A339" t="s">
-        <v>817</v>
+        <v>855</v>
       </c>
       <c r="B339" t="s">
-        <v>818</v>
+        <v>856</v>
       </c>
       <c r="C339" s="4" t="s">
-        <v>819</v>
+        <v>875</v>
       </c>
       <c r="D339" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E339" t="s">
-        <v>764</v>
-      </c>
-      <c r="F339" s="4">
-        <v>5</v>
+        <v>835</v>
       </c>
       <c r="G339" s="6">
-        <v>211131</v>
+        <v>191306</v>
       </c>
     </row>
     <row r="340" spans="1:7">
       <c r="A340" t="s">
-        <v>820</v>
+        <v>19</v>
       </c>
       <c r="B340" t="s">
-        <v>821</v>
+        <v>857</v>
       </c>
       <c r="C340" s="4" t="s">
-        <v>822</v>
+        <v>858</v>
       </c>
       <c r="D340" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E340" t="s">
-        <v>764</v>
+        <v>835</v>
       </c>
       <c r="G340" s="6">
-        <v>211131</v>
+        <v>191306</v>
       </c>
     </row>
     <row r="341" spans="1:7">
       <c r="A341" t="s">
-        <v>56</v>
+        <v>859</v>
       </c>
       <c r="B341" t="s">
-        <v>823</v>
-      </c>
-      <c r="C341" s="4" t="s">
-        <v>824</v>
+        <v>860</v>
+      </c>
+      <c r="C341" s="4">
+        <v>91026</v>
       </c>
       <c r="D341" s="4">
         <v>2</v>
       </c>
       <c r="E341" t="s">
-        <v>764</v>
+        <v>835</v>
       </c>
       <c r="G341" s="6">
-        <v>211131</v>
+        <v>191306</v>
       </c>
     </row>
     <row r="342" spans="1:7">
       <c r="A342" t="s">
-        <v>825</v>
+        <v>424</v>
       </c>
       <c r="B342" t="s">
-        <v>826</v>
+        <v>861</v>
       </c>
       <c r="C342" s="4" t="s">
-        <v>827</v>
+        <v>862</v>
       </c>
       <c r="D342" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E342" t="s">
-        <v>764</v>
-      </c>
-      <c r="F342" s="4">
-        <v>5</v>
+        <v>835</v>
       </c>
       <c r="G342" s="6">
-        <v>211131</v>
+        <v>191306</v>
       </c>
     </row>
     <row r="343" spans="1:7">
       <c r="A343" t="s">
-        <v>828</v>
+        <v>65</v>
       </c>
       <c r="B343" t="s">
-        <v>829</v>
+        <v>863</v>
       </c>
       <c r="C343" s="4" t="s">
-        <v>830</v>
+        <v>864</v>
       </c>
       <c r="D343" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E343" t="s">
-        <v>764</v>
+        <v>835</v>
       </c>
       <c r="G343" s="6">
-        <v>211131</v>
+        <v>191306</v>
       </c>
     </row>
     <row r="344" spans="1:7">
       <c r="A344" t="s">
-        <v>831</v>
+        <v>865</v>
       </c>
       <c r="B344" t="s">
-        <v>832</v>
+        <v>866</v>
       </c>
       <c r="C344" s="4" t="s">
-        <v>833</v>
+        <v>867</v>
       </c>
       <c r="D344" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E344" t="s">
-        <v>764</v>
-      </c>
-      <c r="F344" s="4">
-        <v>5</v>
+        <v>835</v>
       </c>
       <c r="G344" s="6">
-        <v>211131</v>
+        <v>191306</v>
       </c>
     </row>
     <row r="345" spans="1:7">
       <c r="A345" t="s">
-        <v>834</v>
+        <v>176</v>
       </c>
       <c r="B345" t="s">
-        <v>385</v>
+        <v>868</v>
       </c>
       <c r="C345" s="4" t="s">
+        <v>869</v>
+      </c>
+      <c r="D345" s="4">
+        <v>2</v>
+      </c>
+      <c r="E345" t="s">
         <v>835</v>
       </c>
-      <c r="D345" s="4">
-        <v>2</v>
-      </c>
-      <c r="E345" t="s">
-        <v>764</v>
-      </c>
-      <c r="F345" s="4">
-        <v>4.8717948717948714</v>
-      </c>
       <c r="G345" s="6">
-        <v>211131</v>
+        <v>191306</v>
       </c>
     </row>
     <row r="346" spans="1:7">
       <c r="A346" t="s">
-        <v>836</v>
+        <v>870</v>
       </c>
       <c r="B346" t="s">
-        <v>837</v>
+        <v>871</v>
       </c>
       <c r="C346" s="4" t="s">
-        <v>838</v>
+        <v>872</v>
       </c>
       <c r="D346" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E346" t="s">
-        <v>764</v>
-      </c>
-      <c r="F346" s="4">
-        <v>2.25</v>
+        <v>835</v>
       </c>
       <c r="G346" s="6">
-        <v>211131</v>
-      </c>
-    </row>
-    <row r="347" spans="1:7">
-      <c r="A347" t="s">
-        <v>839</v>
-      </c>
-      <c r="B347" t="s">
-        <v>128</v>
-      </c>
-      <c r="C347" s="4" t="s">
-        <v>840</v>
-      </c>
-      <c r="D347" s="4">
-        <v>2</v>
-      </c>
-      <c r="E347" t="s">
-        <v>764</v>
-      </c>
-      <c r="G347" s="6">
-        <v>211131</v>
-      </c>
-    </row>
-    <row r="348" spans="1:7">
-      <c r="A348" t="s">
-        <v>841</v>
-      </c>
-      <c r="B348" t="s">
-        <v>842</v>
-      </c>
-      <c r="C348" s="4" t="s">
-        <v>843</v>
-      </c>
-      <c r="D348" s="4">
-        <v>2</v>
-      </c>
-      <c r="E348" t="s">
-        <v>764</v>
-      </c>
-      <c r="F348" s="4">
-        <v>4.8840579710144931</v>
-      </c>
-      <c r="G348" s="6">
-        <v>211131</v>
-      </c>
-    </row>
-    <row r="349" spans="1:7">
-      <c r="A349" t="s">
-        <v>844</v>
-      </c>
-      <c r="B349" t="s">
-        <v>845</v>
-      </c>
-      <c r="C349" s="4" t="s">
-        <v>846</v>
-      </c>
-      <c r="D349" s="4">
-        <v>2</v>
-      </c>
-      <c r="E349" t="s">
-        <v>847</v>
-      </c>
-      <c r="G349" s="6">
-        <v>191306</v>
-      </c>
-    </row>
-    <row r="350" spans="1:7">
-      <c r="A350" t="s">
-        <v>152</v>
-      </c>
-      <c r="B350" t="s">
-        <v>608</v>
-      </c>
-      <c r="C350" s="4" t="s">
-        <v>848</v>
-      </c>
-      <c r="D350" s="4">
-        <v>2</v>
-      </c>
-      <c r="E350" t="s">
-        <v>847</v>
-      </c>
-      <c r="G350" s="6">
-        <v>191306</v>
-      </c>
-    </row>
-    <row r="351" spans="1:7">
-      <c r="A351" t="s">
-        <v>849</v>
-      </c>
-      <c r="B351" t="s">
-        <v>850</v>
-      </c>
-      <c r="C351" s="4" t="s">
-        <v>851</v>
-      </c>
-      <c r="D351" s="4">
-        <v>1</v>
-      </c>
-      <c r="E351" t="s">
-        <v>847</v>
-      </c>
-      <c r="G351" s="6">
-        <v>191306</v>
-      </c>
-    </row>
-    <row r="352" spans="1:7">
-      <c r="A352" t="s">
-        <v>852</v>
-      </c>
-      <c r="B352" t="s">
-        <v>515</v>
-      </c>
-      <c r="C352" s="4" t="s">
-        <v>853</v>
-      </c>
-      <c r="D352" s="4">
-        <v>1</v>
-      </c>
-      <c r="E352" t="s">
-        <v>847</v>
-      </c>
-      <c r="G352" s="6">
-        <v>191306</v>
-      </c>
-    </row>
-    <row r="353" spans="1:7">
-      <c r="A353" t="s">
-        <v>854</v>
-      </c>
-      <c r="B353" t="s">
-        <v>855</v>
-      </c>
-      <c r="C353" s="4" t="s">
-        <v>856</v>
-      </c>
-      <c r="D353" s="4">
-        <v>1</v>
-      </c>
-      <c r="E353" t="s">
-        <v>847</v>
-      </c>
-      <c r="G353" s="6">
-        <v>191306</v>
-      </c>
-    </row>
-    <row r="354" spans="1:7">
-      <c r="A354" t="s">
-        <v>10</v>
-      </c>
-      <c r="B354" t="s">
-        <v>857</v>
-      </c>
-      <c r="C354" s="4" t="s">
-        <v>858</v>
-      </c>
-      <c r="D354" s="4">
-        <v>1</v>
-      </c>
-      <c r="E354" t="s">
-        <v>847</v>
-      </c>
-      <c r="F354" s="4">
-        <v>5</v>
-      </c>
-      <c r="G354" s="6">
-        <v>191306</v>
-      </c>
-    </row>
-    <row r="355" spans="1:7">
-      <c r="A355" t="s">
-        <v>267</v>
-      </c>
-      <c r="B355" t="s">
-        <v>859</v>
-      </c>
-      <c r="C355" s="4" t="s">
-        <v>860</v>
-      </c>
-      <c r="D355" s="4">
-        <v>1</v>
-      </c>
-      <c r="E355" t="s">
-        <v>847</v>
-      </c>
-      <c r="G355" s="6">
-        <v>191306</v>
-      </c>
-    </row>
-    <row r="356" spans="1:7">
-      <c r="A356" t="s">
-        <v>861</v>
-      </c>
-      <c r="B356" t="s">
-        <v>862</v>
-      </c>
-      <c r="C356" s="4" t="s">
-        <v>863</v>
-      </c>
-      <c r="D356" s="4">
-        <v>1</v>
-      </c>
-      <c r="E356" t="s">
-        <v>847</v>
-      </c>
-      <c r="G356" s="6">
-        <v>191306</v>
-      </c>
-    </row>
-    <row r="357" spans="1:7">
-      <c r="A357" t="s">
-        <v>864</v>
-      </c>
-      <c r="B357" t="s">
-        <v>865</v>
-      </c>
-      <c r="C357" s="4" t="s">
-        <v>866</v>
-      </c>
-      <c r="D357" s="4">
-        <v>2</v>
-      </c>
-      <c r="E357" t="s">
-        <v>847</v>
-      </c>
-      <c r="G357" s="6">
-        <v>191306</v>
-      </c>
-    </row>
-    <row r="358" spans="1:7">
-      <c r="A358" t="s">
-        <v>867</v>
-      </c>
-      <c r="B358" t="s">
-        <v>850</v>
-      </c>
-      <c r="C358" s="4" t="s">
-        <v>851</v>
-      </c>
-      <c r="D358" s="4">
-        <v>1</v>
-      </c>
-      <c r="E358" t="s">
-        <v>847</v>
-      </c>
-      <c r="G358" s="6">
-        <v>191306</v>
-      </c>
-    </row>
-    <row r="359" spans="1:7">
-      <c r="A359" t="s">
-        <v>868</v>
-      </c>
-      <c r="B359" t="s">
-        <v>869</v>
-      </c>
-      <c r="C359" s="4" t="s">
-        <v>870</v>
-      </c>
-      <c r="D359" s="4">
-        <v>1</v>
-      </c>
-      <c r="E359" t="s">
-        <v>847</v>
-      </c>
-      <c r="G359" s="6">
-        <v>191306</v>
-      </c>
-    </row>
-    <row r="360" spans="1:7">
-      <c r="A360" t="s">
-        <v>19</v>
-      </c>
-      <c r="B360" t="s">
-        <v>871</v>
-      </c>
-      <c r="C360" s="4" t="s">
-        <v>872</v>
-      </c>
-      <c r="D360" s="4">
-        <v>1</v>
-      </c>
-      <c r="E360" t="s">
-        <v>847</v>
-      </c>
-      <c r="G360" s="6">
-        <v>191306</v>
-      </c>
-    </row>
-    <row r="361" spans="1:7">
-      <c r="A361" t="s">
-        <v>873</v>
-      </c>
-      <c r="B361" t="s">
-        <v>874</v>
-      </c>
-      <c r="C361" s="4" t="s">
-        <v>875</v>
-      </c>
-      <c r="D361" s="4">
-        <v>2</v>
-      </c>
-      <c r="E361" t="s">
-        <v>847</v>
-      </c>
-      <c r="G361" s="6">
-        <v>191306</v>
-      </c>
-    </row>
-    <row r="362" spans="1:7">
-      <c r="A362" t="s">
-        <v>430</v>
-      </c>
-      <c r="B362" t="s">
-        <v>876</v>
-      </c>
-      <c r="C362" s="4" t="s">
-        <v>877</v>
-      </c>
-      <c r="D362" s="4">
-        <v>1</v>
-      </c>
-      <c r="E362" t="s">
-        <v>847</v>
-      </c>
-      <c r="G362" s="6">
-        <v>191306</v>
-      </c>
-    </row>
-    <row r="363" spans="1:7">
-      <c r="A363" t="s">
-        <v>65</v>
-      </c>
-      <c r="B363" t="s">
-        <v>878</v>
-      </c>
-      <c r="C363" s="4" t="s">
-        <v>879</v>
-      </c>
-      <c r="D363" s="4">
-        <v>1</v>
-      </c>
-      <c r="E363" t="s">
-        <v>847</v>
-      </c>
-      <c r="G363" s="6">
-        <v>191306</v>
-      </c>
-    </row>
-    <row r="364" spans="1:7">
-      <c r="A364" t="s">
-        <v>880</v>
-      </c>
-      <c r="B364" t="s">
-        <v>881</v>
-      </c>
-      <c r="C364" s="4" t="s">
-        <v>882</v>
-      </c>
-      <c r="D364" s="4">
-        <v>1</v>
-      </c>
-      <c r="E364" t="s">
-        <v>847</v>
-      </c>
-      <c r="G364" s="6">
-        <v>191306</v>
-      </c>
-    </row>
-    <row r="365" spans="1:7">
-      <c r="A365" t="s">
-        <v>178</v>
-      </c>
-      <c r="B365" t="s">
-        <v>883</v>
-      </c>
-      <c r="C365" s="4" t="s">
-        <v>884</v>
-      </c>
-      <c r="D365" s="4">
-        <v>2</v>
-      </c>
-      <c r="E365" t="s">
-        <v>847</v>
-      </c>
-      <c r="G365" s="6">
-        <v>191306</v>
-      </c>
-    </row>
-    <row r="366" spans="1:7">
-      <c r="A366" t="s">
-        <v>885</v>
-      </c>
-      <c r="B366" t="s">
-        <v>886</v>
-      </c>
-      <c r="C366" s="4" t="s">
-        <v>887</v>
-      </c>
-      <c r="D366" s="4">
-        <v>1</v>
-      </c>
-      <c r="E366" t="s">
-        <v>847</v>
-      </c>
-      <c r="G366" s="6">
         <v>191306</v>
       </c>
     </row>
